--- a/Morais/TEAM.xlsx
+++ b/Morais/TEAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phdisegutl-my.sharepoint.com/personal/l59357_aln_iseg_ulisboa_pt/Documents/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phdisegutl-my.sharepoint.com/personal/l59357_aln_iseg_ulisboa_pt/Documents/Desktop/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1010" documentId="8_{365BE2D3-B21A-4611-934E-9390977FFB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100C5AD2-49BF-46A4-9453-515A3D86804C}"/>
+  <xr:revisionPtr revIDLastSave="1172" documentId="8_{365BE2D3-B21A-4611-934E-9390977FFB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3488DF4-E077-40E0-951F-56630D7B3E35}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{BB655E07-5192-44E6-983D-A3B510CDA9E2}"/>
+    <workbookView xWindow="28680" yWindow="-990" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB655E07-5192-44E6-983D-A3B510CDA9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <author>alexa</author>
   </authors>
   <commentList>
-    <comment ref="P19" authorId="0" shapeId="0" xr:uid="{D2EB1109-CD5E-4436-9403-E1E62F20200D}">
+    <comment ref="Q19" authorId="0" shapeId="0" xr:uid="{C13667A7-672A-4458-8A85-A5908448030E}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>alexa:</t>
         </r>
@@ -121,14 +121,110 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1233 TO 1241</t>
+1345-1353</t>
         </r>
       </text>
     </comment>
-    <comment ref="U39" authorId="0" shapeId="0" xr:uid="{9286EEE5-6840-4780-99A4-0CCDDA081405}">
+    <comment ref="AB19" authorId="0" shapeId="0" xr:uid="{77022D64-D62C-4FFE-A001-86F376E5B14C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alexa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5190</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC19" authorId="0" shapeId="0" xr:uid="{559F35AB-22A1-4A73-BBCF-061EE8218B6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alexa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6210</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB33" authorId="0" shapeId="0" xr:uid="{3F13F1E9-CEC7-4A03-9555-6DF56BB34A47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alexa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3.48</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC33" authorId="0" shapeId="0" xr:uid="{416BAC56-30A2-4D48-9B00-E42EF3BD301A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alexa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4.21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB39" authorId="0" shapeId="0" xr:uid="{9286EEE5-6840-4780-99A4-0CCDDA081405}">
       <text>
         <r>
           <rPr>
@@ -194,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="161">
   <si>
     <t>Subscription</t>
   </si>
@@ -668,6 +764,15 @@
   </si>
   <si>
     <t>Q2 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Rate </t>
+  </si>
+  <si>
+    <t>EV/FCF RR</t>
+  </si>
+  <si>
+    <t>Q3 2025</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1217,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model!$T$8:$T$12</c:f>
+              <c:f>model!$AA$8:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1566,7 +1671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model!$T$14:$T$17</c:f>
+              <c:f>model!$AA$14:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1866,6 +1971,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1326.636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1403.616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,13 +4097,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>604274</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20484</xdr:rowOff>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>133145</xdr:rowOff>
@@ -4013,8 +4121,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13273548" y="20484"/>
-          <a:ext cx="10242" cy="15188790"/>
+          <a:off x="14833600" y="8467"/>
+          <a:ext cx="0" cy="16380678"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4160,36 +4268,36 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>258.69</v>
+    <v>325.99990000000003</v>
     <v>135.29</v>
-    <v>0.73329999999999995</v>
-    <v>-1.9</v>
-    <v>-9.9769999999999998E-3</v>
+    <v>1.0783</v>
+    <v>-5.79</v>
+    <v>-2.9238E-2</v>
     <v>USD</v>
-    <v>Atlassian Corporation designs, develops, licenses, and maintains software and provisions software hosting services. The Company’s products include Jira Software and Jira Work Management, Confluence for content creation and sharing, and Jira Service Management for team service, management, and support applications. The Jira Software and Jira Work Management provides a project management system that connects technical and business teams. Confluence provides a connected workspace that organizes knowledge across all teams to move work forward. Jira Service Management is a service desk product for creating and managing service experiences for a variety of service team providers, including information technology, legal, and human resources teams. The Atlassian platform is the common technology foundation for its products that drives connections between teams, information, and workflows. Its Loom platform is a video messaging platform that helps users to communicate through shareable videos.</v>
+    <v>Atlassian Corporation is a global technology company. The Company’s primary products include Jira for planning and project management, Confluence for content creation and sharing, Jira Service Management for team service, management and support applications, Loom for asynchronous video collaboration, and Rovo for unlocking organizational knowledge. The Atlassian platform is the common technology foundation for its products that drives connections between teams, information, and workflows. It enables modern and connected experiences across teams, tools, workflows, and data, including collaboration, analytics, automation, and artificial intelligence capabilities. The comprehensive data model, or Teamwork Graph, unifies and standardizes data across Atlassian products, third-party tools, and teams. Its Loom platform is a video messaging platform that helps users to communicate through shareable videos.</v>
     <v>12157</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Level 6, 341 George Street, SYDNEY, NEW SOUTH WALES, 2000 AU</v>
-    <v>191.34</v>
+    <v>200.82</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45596.999981596877</v>
+    <v>45758.650268228906</v>
     <v>0</v>
-    <v>187.64</v>
-    <v>49122871490</v>
+    <v>190.95</v>
+    <v>50366937672</v>
     <v>ATLASSIAN CORPORATION</v>
     <v>ATLASSIAN CORPORATION</v>
-    <v>190.36</v>
+    <v>199.36</v>
     <v>0</v>
-    <v>190.44</v>
-    <v>188.54</v>
-    <v>260543500</v>
+    <v>198.03</v>
+    <v>192.24</v>
+    <v>262000300</v>
     <v>TEAM</v>
     <v>ATLASSIAN CORPORATION (XNAS:TEAM)</v>
-    <v>8877</v>
-    <v>1719714</v>
+    <v>651004</v>
+    <v>2902822</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -4412,7 +4520,7 @@
       <x:numFmt numFmtId="0" formatCode="General"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
@@ -4778,21 +4886,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A874D53-1BB5-409A-A4A9-097BD3FABC90}">
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
@@ -4809,7 +4918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
@@ -4827,10 +4936,10 @@
       </c>
       <c r="M3" s="6" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">+_FV(M2,"Price")</f>
-        <v>188.54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>192.24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -4844,14 +4953,14 @@
         <v>110</v>
       </c>
       <c r="M4" s="2">
-        <f>160.032961+99.995049</f>
-        <v>260.02800999999999</v>
+        <f>163.992257+98.008049</f>
+        <v>262.00030600000002</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -4869,10 +4978,10 @@
       </c>
       <c r="M5" s="2">
         <f ca="1">+M3*M4</f>
-        <v>49025.681005399994</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>50366.938825440004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>117</v>
       </c>
@@ -4889,14 +4998,14 @@
         <v>112</v>
       </c>
       <c r="M6" s="2">
-        <f>2055.597+161.401+220.479</f>
-        <v>2437.4769999999999</v>
+        <f>2217.604+251.629+222.299</f>
+        <v>2691.5319999999997</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
@@ -4913,13 +5022,13 @@
         <v>113</v>
       </c>
       <c r="M7" s="2">
-        <v>986.34500000000003</v>
+        <v>986.78499999999997</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G8" s="4" t="s">
         <v>130</v>
       </c>
@@ -4931,13 +5040,13 @@
       </c>
       <c r="M8" s="2">
         <f ca="1">+M5-M6+M7</f>
-        <v>47574.549005399997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+        <v>48662.191825440008</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>92</v>
       </c>
@@ -4947,155 +5056,121 @@
       </c>
       <c r="M10" s="15">
         <f ca="1">+M8/model!O85</f>
-        <v>35.861041766844863</v>
+        <v>36.680891989543483</v>
       </c>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="13">
-        <v>2025</v>
-      </c>
-      <c r="M11" s="15">
-        <f ca="1">+$M$8/N11</f>
-        <v>26.886213023562028</v>
-      </c>
-      <c r="N11" s="17">
-        <f>+model!T84*1.25</f>
-        <v>1769.4775000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L11" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="17">
+        <f>+model!P84*4</f>
+        <v>1444.9639999999999</v>
+      </c>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="13">
-        <f>+L11+1</f>
-        <v>2026</v>
+      <c r="L12" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" ref="M12:M15" ca="1" si="0">+$M$8/N12</f>
-        <v>21.508970418849625</v>
-      </c>
-      <c r="N12" s="17">
-        <f>+N11*1.25</f>
-        <v>2211.8468750000006</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+        <f ca="1">+M8/M11</f>
+        <v>33.677096332808297</v>
+      </c>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="13">
-        <f t="shared" ref="L13:L15" si="1">+L12+1</f>
-        <v>2027</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.207176335079698</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" ref="N13:N15" si="2">+N12*1.25</f>
-        <v>2764.8085937500009</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="13"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="13">
-        <f t="shared" si="1"/>
-        <v>2028</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.765741068063759</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="2"/>
-        <v>3456.0107421875009</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="13"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="13">
-        <f t="shared" si="1"/>
-        <v>2029</v>
-      </c>
-      <c r="M15" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.012592854451009</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="2"/>
-        <v>4320.0134277343759</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>132</v>
       </c>
@@ -5110,25 +5185,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA55440B-C111-4180-AC4A-DB272C1B7540}">
-  <dimension ref="A1:BY91"/>
+  <dimension ref="A1:CF91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF19" sqref="AF19"/>
+      <selection pane="bottomRight" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="30" width="9.140625" style="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="37" width="9.109375" style="1"/>
+    <col min="38" max="38" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5175,58 +5250,88 @@
       <c r="P1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4">
-        <v>2022</v>
-      </c>
+      <c r="Q1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="4"/>
       <c r="S1" s="4">
-        <f>+R1+1</f>
-        <v>2023</v>
+        <f>+T1-1</f>
+        <v>2016</v>
       </c>
       <c r="T1" s="4">
-        <f t="shared" ref="T1:AB1" si="0">+S1+1</f>
-        <v>2024</v>
+        <f t="shared" ref="T1:W1" si="0">+U1-1</f>
+        <v>2017</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="X1" s="4">
+        <f>+Y1-1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="Z1" s="4">
+        <f>+Y1+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AA1" s="4">
+        <f t="shared" ref="AA1:AI1" si="1">+Z1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AB1" s="4">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="AC1" s="4">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="AD1" s="4">
+        <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="X1" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE1" s="4">
+        <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="Y1" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF1" s="4">
+        <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="Z1" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG1" s="4">
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="AA1" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH1" s="4">
+        <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="AB1" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI1" s="4">
+        <f t="shared" si="1"/>
         <v>2032</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P2" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5242,7 +5347,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -5255,8 +5360,15 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5282,7 +5394,7 @@
         <v>760.68</v>
       </c>
       <c r="J4" s="2">
-        <f>+S4-SUM(G4:I4)</f>
+        <f>+Z4-SUM(G4:I4)</f>
         <v>799.71300000000019</v>
       </c>
       <c r="K4" s="2">
@@ -5295,55 +5407,58 @@
         <v>1071.355</v>
       </c>
       <c r="N4" s="2">
-        <f>+T4-SUM(K4:M4)</f>
+        <f>+AA4-SUM(K4:M4)</f>
         <v>1068.8710000000001</v>
       </c>
       <c r="O4" s="2">
         <v>1131.9480000000001</v>
       </c>
-      <c r="R4" s="2">
+      <c r="P4" s="2">
+        <v>1213.248</v>
+      </c>
+      <c r="Y4" s="2">
         <v>2096.7060000000001</v>
       </c>
-      <c r="S4" s="2">
+      <c r="Z4" s="2">
         <v>2922.576</v>
       </c>
-      <c r="T4" s="2">
+      <c r="AA4" s="2">
         <v>3924.3890000000001</v>
       </c>
-      <c r="U4" s="2">
-        <f>+T4*1.25</f>
+      <c r="AB4" s="2">
+        <f>+AA4*1.25</f>
         <v>4905.4862499999999</v>
       </c>
-      <c r="V4" s="2">
-        <f t="shared" ref="V4:Y4" si="1">+U4*1.25</f>
+      <c r="AC4" s="2">
+        <f t="shared" ref="AC4:AF4" si="2">+AB4*1.25</f>
         <v>6131.8578125000004</v>
       </c>
-      <c r="W4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AD4" s="2">
+        <f t="shared" si="2"/>
         <v>7664.822265625</v>
       </c>
-      <c r="X4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AE4" s="2">
+        <f t="shared" si="2"/>
         <v>9581.02783203125</v>
       </c>
-      <c r="Y4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AF4" s="2">
+        <f t="shared" si="2"/>
         <v>11976.284790039063</v>
       </c>
-      <c r="Z4" s="2">
-        <f t="shared" ref="V4:Z4" si="2">+Y4*1.2</f>
+      <c r="AG4" s="2">
+        <f t="shared" ref="AG4" si="3">+AF4*1.2</f>
         <v>14371.541748046875</v>
       </c>
-      <c r="AA4" s="2">
-        <f t="shared" ref="AA4:AB4" si="3">+Z4*1.18</f>
+      <c r="AH4" s="2">
+        <f t="shared" ref="AH4:AI4" si="4">+AG4*1.18</f>
         <v>16958.419262695312</v>
       </c>
-      <c r="AB4" s="2">
-        <f t="shared" si="3"/>
+      <c r="AI4" s="2">
+        <f t="shared" si="4"/>
         <v>20010.934729980469</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +5484,7 @@
         <v>94.224999999999994</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J6" si="4">+S5-SUM(G5:I5)</f>
+        <f t="shared" ref="J5:J6" si="5">+Z5-SUM(G5:I5)</f>
         <v>85.925000000000011</v>
       </c>
       <c r="K5" s="2">
@@ -5382,53 +5497,54 @@
         <v>29.53</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N6" si="5">+T5-SUM(K5:M5)</f>
+        <f t="shared" ref="N5:N6" si="6">+AA5-SUM(K5:M5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="R5" s="2">
+      <c r="P5" s="2"/>
+      <c r="Y5" s="2">
         <v>495.077</v>
       </c>
-      <c r="S5" s="2">
+      <c r="Z5" s="2">
         <v>399.738</v>
       </c>
-      <c r="T5" s="2">
+      <c r="AA5" s="2">
         <v>177.23</v>
       </c>
-      <c r="U5" s="2">
-        <f>+T5*0.97</f>
+      <c r="AB5" s="2">
+        <f>+AA5*0.97</f>
         <v>171.91309999999999</v>
       </c>
-      <c r="V5" s="2">
-        <f t="shared" ref="V5:AB5" si="6">+U5*0.97</f>
+      <c r="AC5" s="2">
+        <f t="shared" ref="AC5:AI5" si="7">+AB5*0.97</f>
         <v>166.75570699999997</v>
       </c>
-      <c r="W5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AD5" s="2">
+        <f t="shared" si="7"/>
         <v>161.75303578999996</v>
       </c>
-      <c r="X5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AE5" s="2">
+        <f t="shared" si="7"/>
         <v>156.90044471629994</v>
       </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AF5" s="2">
+        <f t="shared" si="7"/>
         <v>152.19343137481093</v>
       </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AG5" s="2">
+        <f t="shared" si="7"/>
         <v>147.6276284335666</v>
       </c>
-      <c r="AA5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AH5" s="2">
+        <f t="shared" si="7"/>
         <v>143.19879958055961</v>
       </c>
-      <c r="AB5" s="2">
-        <f t="shared" si="6"/>
+      <c r="AI5" s="2">
+        <f t="shared" si="7"/>
         <v>138.90283559314281</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -5454,7 +5570,7 @@
         <v>60.548000000000002</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.460000000000008</v>
       </c>
       <c r="K6" s="2">
@@ -5467,436 +5583,621 @@
         <v>88.242999999999995</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.718999999999994</v>
       </c>
       <c r="O6" s="2">
         <v>55.832999999999998</v>
       </c>
-      <c r="R6" s="2">
+      <c r="P6" s="2">
+        <v>73.215000000000003</v>
+      </c>
+      <c r="Y6" s="2">
         <v>211.09899999999999</v>
       </c>
-      <c r="S6" s="2">
+      <c r="Z6" s="2">
         <v>212.333</v>
       </c>
-      <c r="T6" s="2">
+      <c r="AA6" s="2">
         <v>256.98399999999998</v>
       </c>
-      <c r="U6" s="2">
-        <f>+T6*1.04</f>
+      <c r="AB6" s="2">
+        <f>+AA6*1.04</f>
         <v>267.26335999999998</v>
       </c>
-      <c r="V6" s="2">
-        <f t="shared" ref="V6:AB6" si="7">+U6*1.04</f>
+      <c r="AC6" s="2">
+        <f t="shared" ref="AC6:AI6" si="8">+AB6*1.04</f>
         <v>277.95389439999997</v>
       </c>
-      <c r="W6" s="2">
-        <f t="shared" si="7"/>
+      <c r="AD6" s="2">
+        <f t="shared" si="8"/>
         <v>289.07205017599995</v>
       </c>
-      <c r="X6" s="2">
-        <f t="shared" si="7"/>
+      <c r="AE6" s="2">
+        <f t="shared" si="8"/>
         <v>300.63493218303995</v>
       </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="7"/>
+      <c r="AF6" s="2">
+        <f t="shared" si="8"/>
         <v>312.66032947036155</v>
       </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="7"/>
+      <c r="AG6" s="2">
+        <f t="shared" si="8"/>
         <v>325.166742649176</v>
       </c>
-      <c r="AA6" s="2">
-        <f t="shared" si="7"/>
+      <c r="AH6" s="2">
+        <f t="shared" si="8"/>
         <v>338.17341235514306</v>
       </c>
-      <c r="AB6" s="2">
-        <f t="shared" si="7"/>
+      <c r="AI6" s="2">
+        <f t="shared" si="8"/>
         <v>351.70034884934881</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>445.62200000000001</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <v>537.39599999999996</v>
+      </c>
+      <c r="Y8" s="2">
         <v>1230.8009999999999</v>
       </c>
-      <c r="S8" s="2">
+      <c r="Z8" s="2">
         <v>1537.328</v>
       </c>
-      <c r="T8" s="2">
+      <c r="AA8" s="2">
         <v>1847.194</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>68.811999999999998</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>81.769000000000005</v>
+      </c>
+      <c r="Y9" s="2">
         <v>178.06700000000001</v>
       </c>
-      <c r="S9" s="2">
+      <c r="Z9" s="2">
         <v>227.83799999999999</v>
       </c>
-      <c r="T9" s="2">
+      <c r="AA9" s="2">
         <v>278.24</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AD9" s="1" t="s">
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AK9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE9" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AL9" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>104.596</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
+        <v>131.99100000000001</v>
+      </c>
+      <c r="Y10" s="2">
         <v>249.227</v>
       </c>
-      <c r="S10" s="2">
+      <c r="Z10" s="2">
         <v>330.04599999999999</v>
       </c>
-      <c r="T10" s="2">
+      <c r="AA10" s="2">
         <v>442.06299999999999</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AD10" s="1" t="s">
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AK10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE10" s="7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AL10" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R11" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>320.69600000000003</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <v>393.49099999999999</v>
+      </c>
+      <c r="Y11" s="2">
         <v>828.11099999999999</v>
       </c>
-      <c r="S11" s="2">
+      <c r="Z11" s="2">
         <v>1036.693</v>
       </c>
-      <c r="T11" s="2">
+      <c r="AA11" s="2">
         <v>1308.847</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AD11" s="1" t="s">
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AK11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AL11" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>120.384</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>141.816</v>
+      </c>
+      <c r="Y12" s="2">
         <v>316.67599999999999</v>
       </c>
-      <c r="S12" s="2">
+      <c r="Z12" s="2">
         <v>402.74200000000002</v>
       </c>
-      <c r="T12" s="2">
+      <c r="AA12" s="2">
         <v>482.25900000000001</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AD12" s="1" t="s">
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AK12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE12" s="11">
-        <f>+NPV(AE9,U31:BY31)+T88</f>
-        <v>57869.812365525111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="AL12" s="11">
+        <f>+NPV(AL9,AB31:CF31)+AA88</f>
+        <v>68633.691850899035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AD13" s="1" t="s">
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AK13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AE13" s="6">
-        <f>+AE12/N32</f>
-        <v>222.29747457236351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AL13" s="6">
+        <f>+AL12/N32</f>
+        <v>263.64516740893737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>653.21</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
         <v>792.30600000000004</v>
       </c>
-      <c r="R14" s="2">
+      <c r="P14" s="2">
+        <v>846.96199999999999</v>
+      </c>
+      <c r="Y14" s="2">
         <v>1515.424</v>
       </c>
-      <c r="S14" s="2">
+      <c r="Z14" s="2">
         <v>2085.498</v>
       </c>
-      <c r="T14" s="2">
+      <c r="AA14" s="2">
         <v>2698.8989999999999</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>274.75799999999998</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
         <v>335.59399999999999</v>
       </c>
-      <c r="R15" s="2">
+      <c r="P15" s="2">
+        <v>362.28100000000001</v>
+      </c>
+      <c r="Y15" s="2">
         <v>560.31899999999996</v>
       </c>
-      <c r="S15" s="2">
+      <c r="Z15" s="2">
         <v>819.25099999999998</v>
       </c>
-      <c r="T15" s="2">
+      <c r="AA15" s="2">
         <v>1208.498</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>69.173000000000002</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Y16" s="2">
         <v>525.02800000000002</v>
       </c>
-      <c r="S16" s="2">
+      <c r="Z16" s="2">
         <v>400.51900000000001</v>
       </c>
-      <c r="T16" s="2">
+      <c r="AA16" s="2">
         <v>177.64500000000001</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+    </row>
+    <row r="17" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>62.969000000000001</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
         <v>59.881</v>
       </c>
-      <c r="R17" s="2">
+      <c r="P17" s="2">
+        <v>77.22</v>
+      </c>
+      <c r="Y17" s="2">
         <v>202.11099999999999</v>
       </c>
-      <c r="S17" s="2">
+      <c r="Z17" s="2">
         <v>229.37899999999999</v>
       </c>
-      <c r="T17" s="2">
+      <c r="AA17" s="2">
         <v>273.56099999999998</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="2:77" x14ac:dyDescent="0.2">
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+    </row>
+    <row r="18" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+    </row>
+    <row r="19" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:O19" si="8">+SUM(C4:C6)</f>
+        <f t="shared" ref="C19:P19" si="9">+SUM(C4:C6)</f>
         <v>614.024</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>688.52600000000007</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>740.49099999999999</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>759.84100000000001</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>807.39199999999994</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>872.70399999999995</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>915.45299999999997</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>939.09800000000018</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>977.77499999999998</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1060.1100000000001</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1189.1279999999999</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1131.5900000000001</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1187.7810000000002</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="5">
+        <f t="shared" si="9"/>
+        <v>1286.463</v>
+      </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="5">
-        <f t="shared" ref="R19:AB19" si="9">+SUM(R4:R6)</f>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5">
+        <v>457.1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="U19" s="5">
+        <v>881</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1614.2</v>
+      </c>
+      <c r="X19" s="5">
+        <v>2089.1</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" ref="Y19:AI19" si="10">+SUM(Y4:Y6)</f>
         <v>2802.8820000000005</v>
       </c>
-      <c r="S19" s="5">
-        <f t="shared" si="9"/>
+      <c r="Z19" s="5">
+        <f t="shared" si="10"/>
         <v>3534.6469999999999</v>
       </c>
-      <c r="T19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AA19" s="5">
+        <f t="shared" si="10"/>
         <v>4358.6030000000001</v>
       </c>
-      <c r="U19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AB19" s="5">
+        <f t="shared" si="10"/>
         <v>5344.6627099999996</v>
       </c>
-      <c r="V19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AC19" s="5">
+        <f t="shared" si="10"/>
         <v>6576.5674139000002</v>
       </c>
-      <c r="W19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AD19" s="5">
+        <f t="shared" si="10"/>
         <v>8115.6473515909993</v>
       </c>
-      <c r="X19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AE19" s="5">
+        <f t="shared" si="10"/>
         <v>10038.563208930591</v>
       </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AF19" s="5">
+        <f t="shared" si="10"/>
         <v>12441.138550884236</v>
       </c>
-      <c r="Z19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AG19" s="5">
+        <f t="shared" si="10"/>
         <v>14844.336119129619</v>
       </c>
-      <c r="AA19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AH19" s="5">
+        <f t="shared" si="10"/>
         <v>17439.791474631016</v>
       </c>
-      <c r="AB19" s="5">
-        <f t="shared" si="9"/>
+      <c r="AI19" s="5">
+        <f t="shared" si="10"/>
         <v>20501.537914422963</v>
       </c>
     </row>
-    <row r="20" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -5939,150 +6240,199 @@
       <c r="O20" s="2">
         <v>217.624</v>
       </c>
-      <c r="R20" s="2">
+      <c r="P20" s="2">
+        <v>223.12700000000001</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" ref="S20:W20" si="11">+S19-S21</f>
+        <v>75.800000000000011</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="11"/>
+        <v>119.20000000000005</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="11"/>
+        <v>172.70000000000005</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="11"/>
+        <v>210.29999999999995</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="11"/>
+        <v>268.79999999999995</v>
+      </c>
+      <c r="X20" s="2">
+        <f>+X19-X21</f>
+        <v>331.79999999999995</v>
+      </c>
+      <c r="Y20" s="2">
         <v>452.91399999999999</v>
       </c>
-      <c r="S20" s="2">
+      <c r="Z20" s="2">
         <v>633.76499999999999</v>
       </c>
-      <c r="T20" s="2">
+      <c r="AA20" s="2">
         <v>803.495</v>
       </c>
-      <c r="U20" s="2">
-        <f>+U19*0.18</f>
+      <c r="AB20" s="2">
+        <f>+AB19*0.18</f>
         <v>962.0392877999999</v>
       </c>
-      <c r="V20" s="2">
-        <f>+V19*0.17</f>
+      <c r="AC20" s="2">
+        <f>+AC19*0.17</f>
         <v>1118.0164603630001</v>
       </c>
-      <c r="W20" s="2">
-        <f t="shared" ref="W20:AB20" si="10">+W19*0.17</f>
+      <c r="AD20" s="2">
+        <f t="shared" ref="AD20:AI20" si="12">+AD19*0.17</f>
         <v>1379.6600497704699</v>
       </c>
-      <c r="X20" s="2">
-        <f t="shared" si="10"/>
+      <c r="AE20" s="2">
+        <f t="shared" si="12"/>
         <v>1706.5557455182006</v>
       </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="10"/>
+      <c r="AF20" s="2">
+        <f t="shared" si="12"/>
         <v>2114.9935536503203</v>
       </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="10"/>
+      <c r="AG20" s="2">
+        <f t="shared" si="12"/>
         <v>2523.5371402520354</v>
       </c>
-      <c r="AA20" s="2">
-        <f t="shared" si="10"/>
+      <c r="AH20" s="2">
+        <f t="shared" si="12"/>
         <v>2964.7645506872732</v>
       </c>
-      <c r="AB20" s="2">
-        <f t="shared" si="10"/>
+      <c r="AI20" s="2">
+        <f t="shared" si="12"/>
         <v>3485.2614454519039</v>
       </c>
     </row>
-    <row r="21" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21" si="11">+C19-C20</f>
+        <f t="shared" ref="C21" si="13">+C19-C20</f>
         <v>516.00599999999997</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21" si="12">+D19-D20</f>
+        <f t="shared" ref="D21" si="14">+D19-D20</f>
         <v>573.36500000000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21" si="13">+E19-E20</f>
+        <f t="shared" ref="E21" si="15">+E19-E20</f>
         <v>621.11699999999996</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21" si="14">+F19-F20</f>
+        <f t="shared" ref="F21" si="16">+F19-F20</f>
         <v>626.68700000000001</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" ref="G21" si="15">+G19-G20</f>
+        <f t="shared" ref="G21" si="17">+G19-G20</f>
         <v>668</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" ref="H21" si="16">+H19-H20</f>
+        <f t="shared" ref="H21" si="18">+H19-H20</f>
         <v>716.75900000000001</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" ref="I21" si="17">+I19-I20</f>
+        <f t="shared" ref="I21" si="19">+I19-I20</f>
         <v>746.80099999999993</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ref="J21" si="18">+J19-J20</f>
+        <f t="shared" ref="J21" si="20">+J19-J20</f>
         <v>769.32200000000012</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ref="K21" si="19">+K19-K20</f>
+        <f t="shared" ref="K21" si="21">+K19-K20</f>
         <v>799.74599999999998</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21" si="20">+L19-L20</f>
+        <f t="shared" ref="L21" si="22">+L19-L20</f>
         <v>865.57400000000007</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21" si="21">+M19-M20</f>
+        <f t="shared" ref="M21" si="23">+M19-M20</f>
         <v>975.70299999999997</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ref="N21:O21" si="22">+N19-N20</f>
+        <f t="shared" ref="N21:P21" si="24">+N19-N20</f>
         <v>914.08500000000015</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>970.15700000000015</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" ref="R21" si="23">+R19-R20</f>
+      <c r="P21" s="2">
+        <f t="shared" si="24"/>
+        <v>1063.336</v>
+      </c>
+      <c r="S21" s="2">
+        <v>381.3</v>
+      </c>
+      <c r="T21" s="2">
+        <v>507.5</v>
+      </c>
+      <c r="U21" s="2">
+        <v>708.3</v>
+      </c>
+      <c r="V21" s="2">
+        <v>999.8</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1345.4</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1757.3</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" ref="Y21" si="25">+Y19-Y20</f>
         <v>2349.9680000000008</v>
       </c>
-      <c r="S21" s="2">
-        <f>+S19-S20</f>
+      <c r="Z21" s="2">
+        <f>+Z19-Z20</f>
         <v>2900.8820000000001</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" ref="T21:AB21" si="24">+T19-T20</f>
+      <c r="AA21" s="2">
+        <f t="shared" ref="AA21:AI21" si="26">+AA19-AA20</f>
         <v>3555.1080000000002</v>
       </c>
-      <c r="U21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AB21" s="2">
+        <f t="shared" si="26"/>
         <v>4382.6234221999994</v>
       </c>
-      <c r="V21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AC21" s="2">
+        <f t="shared" si="26"/>
         <v>5458.5509535370002</v>
       </c>
-      <c r="W21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AD21" s="2">
+        <f t="shared" si="26"/>
         <v>6735.987301820529</v>
       </c>
-      <c r="X21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AE21" s="2">
+        <f t="shared" si="26"/>
         <v>8332.0074634123903</v>
       </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AF21" s="2">
+        <f t="shared" si="26"/>
         <v>10326.144997233916</v>
       </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AG21" s="2">
+        <f t="shared" si="26"/>
         <v>12320.798978877583</v>
       </c>
-      <c r="AA21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AH21" s="2">
+        <f t="shared" si="26"/>
         <v>14475.026923943744</v>
       </c>
-      <c r="AB21" s="2">
-        <f t="shared" si="24"/>
+      <c r="AI21" s="2">
+        <f t="shared" si="26"/>
         <v>17016.27646897106</v>
       </c>
     </row>
-    <row r="22" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
@@ -6125,49 +6475,52 @@
       <c r="O22" s="2">
         <v>603.101</v>
       </c>
-      <c r="R22" s="2">
+      <c r="P22" s="2">
+        <v>680.21299999999997</v>
+      </c>
+      <c r="Y22" s="2">
         <v>1291.877</v>
       </c>
-      <c r="S22" s="2">
+      <c r="Z22" s="2">
         <v>1869.8810000000001</v>
       </c>
-      <c r="T22" s="2">
+      <c r="AA22" s="2">
         <v>2184.1109999999999</v>
       </c>
-      <c r="U22" s="2">
-        <f>+U19*0.48</f>
+      <c r="AB22" s="2">
+        <f>+AB19*0.48</f>
         <v>2565.4381007999996</v>
       </c>
-      <c r="V22" s="2">
-        <f>+V19*0.4</f>
+      <c r="AC22" s="2">
+        <f>+AC19*0.4</f>
         <v>2630.6269655600004</v>
       </c>
-      <c r="W22" s="2">
-        <f>+W19*0.39</f>
+      <c r="AD22" s="2">
+        <f>+AD19*0.39</f>
         <v>3165.10246712049</v>
       </c>
-      <c r="X22" s="2">
-        <f>+X19*0.38</f>
+      <c r="AE22" s="2">
+        <f>+AE19*0.38</f>
         <v>3814.6540193936244</v>
       </c>
-      <c r="Y22" s="2">
-        <f>+Y19*0.35</f>
+      <c r="AF22" s="2">
+        <f>+AF19*0.35</f>
         <v>4354.3984928094824</v>
       </c>
-      <c r="Z22" s="2">
-        <f>+Z19*0.33</f>
+      <c r="AG22" s="2">
+        <f>+AG19*0.33</f>
         <v>4898.6309193127745</v>
       </c>
-      <c r="AA22" s="2">
-        <f>+AA19*0.32</f>
+      <c r="AH22" s="2">
+        <f>+AH19*0.32</f>
         <v>5580.7332718819252</v>
       </c>
-      <c r="AB22" s="2">
-        <f>+AB19*0.31</f>
+      <c r="AI22" s="2">
+        <f>+AI19*0.31</f>
         <v>6355.4767534711182</v>
       </c>
     </row>
-    <row r="23" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -6210,49 +6563,52 @@
       <c r="O23" s="2">
         <v>252.393</v>
       </c>
-      <c r="R23" s="2">
+      <c r="P23" s="2">
+        <v>271.89400000000001</v>
+      </c>
+      <c r="Y23" s="2">
         <v>535.81500000000005</v>
       </c>
-      <c r="S23" s="2">
+      <c r="Z23" s="2">
         <v>769.86099999999999</v>
       </c>
-      <c r="T23" s="2">
+      <c r="AA23" s="2">
         <v>877.49699999999996</v>
       </c>
-      <c r="U23" s="2">
-        <f>+U19*0.2</f>
+      <c r="AB23" s="2">
+        <f>+AB19*0.2</f>
         <v>1068.932542</v>
       </c>
-      <c r="V23" s="2">
-        <f>+V19*0.17</f>
+      <c r="AC23" s="2">
+        <f>+AC19*0.17</f>
         <v>1118.0164603630001</v>
       </c>
-      <c r="W23" s="2">
-        <f t="shared" ref="W23" si="25">+W19*0.17</f>
+      <c r="AD23" s="2">
+        <f t="shared" ref="AD23" si="27">+AD19*0.17</f>
         <v>1379.6600497704699</v>
       </c>
-      <c r="X23" s="2">
-        <f>+X19*0.15</f>
+      <c r="AE23" s="2">
+        <f>+AE19*0.15</f>
         <v>1505.7844813395886</v>
       </c>
-      <c r="Y23" s="2">
-        <f>+Y19*0.13</f>
+      <c r="AF23" s="2">
+        <f>+AF19*0.13</f>
         <v>1617.3480116149508</v>
       </c>
-      <c r="Z23" s="2">
-        <f t="shared" ref="Z23:AB23" si="26">+Z19*0.13</f>
+      <c r="AG23" s="2">
+        <f t="shared" ref="AG23:AI23" si="28">+AG19*0.13</f>
         <v>1929.7636954868506</v>
       </c>
-      <c r="AA23" s="2">
-        <f t="shared" si="26"/>
+      <c r="AH23" s="2">
+        <f t="shared" si="28"/>
         <v>2267.1728917020323</v>
       </c>
-      <c r="AB23" s="2">
-        <f t="shared" si="26"/>
+      <c r="AI23" s="2">
+        <f t="shared" si="28"/>
         <v>2665.1999288749853</v>
       </c>
     </row>
-    <row r="24" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -6295,251 +6651,304 @@
       <c r="O24" s="2">
         <v>146.64099999999999</v>
       </c>
-      <c r="R24" s="2">
+      <c r="P24" s="2">
+        <v>168.708</v>
+      </c>
+      <c r="Y24" s="2">
         <v>452.19299999999998</v>
       </c>
-      <c r="S24" s="2">
+      <c r="Z24" s="2">
         <v>606.36199999999997</v>
       </c>
-      <c r="T24" s="2">
+      <c r="AA24" s="2">
         <v>610.577</v>
       </c>
-      <c r="U24" s="2">
-        <f>+U19*0.13</f>
+      <c r="AB24" s="2">
+        <f>+AB19*0.13</f>
         <v>694.80615230000001</v>
       </c>
-      <c r="V24" s="2">
-        <f>+V19*0.12</f>
+      <c r="AC24" s="2">
+        <f>+AC19*0.12</f>
         <v>789.18808966799998</v>
       </c>
-      <c r="W24" s="2">
-        <f>+W19*0.11</f>
+      <c r="AD24" s="2">
+        <f>+AD19*0.11</f>
         <v>892.72120867500996</v>
       </c>
-      <c r="X24" s="2">
-        <f t="shared" ref="X24:AB24" si="27">+X19*0.11</f>
+      <c r="AE24" s="2">
+        <f t="shared" ref="AE24:AI24" si="29">+AE19*0.11</f>
         <v>1104.2419529823651</v>
       </c>
-      <c r="Y24" s="2">
-        <f t="shared" si="27"/>
+      <c r="AF24" s="2">
+        <f t="shared" si="29"/>
         <v>1368.525240597266</v>
       </c>
-      <c r="Z24" s="2">
-        <f t="shared" si="27"/>
+      <c r="AG24" s="2">
+        <f t="shared" si="29"/>
         <v>1632.876973104258</v>
       </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="27"/>
+      <c r="AH24" s="2">
+        <f t="shared" si="29"/>
         <v>1918.3770622094119</v>
       </c>
-      <c r="AB24" s="2">
-        <f t="shared" si="27"/>
+      <c r="AI24" s="2">
+        <f t="shared" si="29"/>
         <v>2255.169170586526</v>
       </c>
     </row>
-    <row r="25" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="28">+SUM(C22:C24)</f>
+        <f t="shared" ref="C25" si="30">+SUM(C22:C24)</f>
         <v>476.36</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25" si="29">+SUM(D22:D24)</f>
+        <f t="shared" ref="D25" si="31">+SUM(D22:D24)</f>
         <v>640.08299999999997</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25" si="30">+SUM(E22:E24)</f>
+        <f t="shared" ref="E25" si="32">+SUM(E22:E24)</f>
         <v>637.24899999999991</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ref="F25" si="31">+SUM(F22:F24)</f>
+        <f t="shared" ref="F25" si="33">+SUM(F22:F24)</f>
         <v>689.94</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" ref="G25" si="32">+SUM(G22:G24)</f>
+        <f t="shared" ref="G25" si="34">+SUM(G22:G24)</f>
         <v>702.02700000000004</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" ref="H25" si="33">+SUM(H22:H24)</f>
+        <f t="shared" ref="H25" si="35">+SUM(H22:H24)</f>
         <v>815.99799999999993</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" ref="I25" si="34">+SUM(I22:I24)</f>
+        <f t="shared" ref="I25" si="36">+SUM(I22:I24)</f>
         <v>908.36800000000017</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" ref="J25" si="35">+SUM(J22:J24)</f>
+        <f t="shared" ref="J25" si="37">+SUM(J22:J24)</f>
         <v>819.71100000000001</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25" si="36">+SUM(K22:K24)</f>
+        <f t="shared" ref="K25" si="38">+SUM(K22:K24)</f>
         <v>818.61500000000001</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25" si="37">+SUM(L22:L24)</f>
+        <f t="shared" ref="L25" si="39">+SUM(L22:L24)</f>
         <v>914.63599999999997</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" ref="M25" si="38">+SUM(M22:M24)</f>
+        <f t="shared" ref="M25" si="40">+SUM(M22:M24)</f>
         <v>957.899</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25:O25" si="39">+SUM(N22:N24)</f>
+        <f t="shared" ref="N25:P25" si="41">+SUM(N22:N24)</f>
         <v>981.03500000000008</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1002.135</v>
       </c>
-      <c r="R25" s="2">
-        <f>+SUM(R22:R24)</f>
+      <c r="P25" s="2">
+        <f t="shared" si="41"/>
+        <v>1120.8150000000001</v>
+      </c>
+      <c r="S25" s="2">
+        <v>387.2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>563.4</v>
+      </c>
+      <c r="U25" s="2">
+        <v>754.3</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1063.2</v>
+      </c>
+      <c r="W25" s="2">
+        <v>1331.3</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1615.9</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>+SUM(Y22:Y24)</f>
         <v>2279.8850000000002</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" ref="S25:AB25" si="40">+SUM(S22:S24)</f>
+      <c r="Z25" s="2">
+        <f t="shared" ref="Z25:AI25" si="42">+SUM(Z22:Z24)</f>
         <v>3246.1040000000003</v>
       </c>
-      <c r="T25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AA25" s="2">
+        <f t="shared" si="42"/>
         <v>3672.1849999999995</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="42"/>
         <v>4329.1767950999993</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AC25" s="2">
+        <f t="shared" si="42"/>
         <v>4537.8315155910004</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AD25" s="2">
+        <f t="shared" si="42"/>
         <v>5437.4837255659695</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AE25" s="2">
+        <f t="shared" si="42"/>
         <v>6424.6804537155786</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AF25" s="2">
+        <f t="shared" si="42"/>
         <v>7340.2717450216987</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AG25" s="2">
+        <f t="shared" si="42"/>
         <v>8461.2715879038824</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AH25" s="2">
+        <f t="shared" si="42"/>
         <v>9766.2832257933696</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="40"/>
+      <c r="AI25" s="2">
+        <f t="shared" si="42"/>
         <v>11275.845852932631</v>
       </c>
     </row>
-    <row r="26" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26" si="41">+C21-C25</f>
+        <f t="shared" ref="C26" si="43">+C21-C25</f>
         <v>39.645999999999958</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26" si="42">+D21-D25</f>
+        <f t="shared" ref="D26" si="44">+D21-D25</f>
         <v>-66.717999999999961</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ref="E26" si="43">+E21-E25</f>
+        <f t="shared" ref="E26" si="45">+E21-E25</f>
         <v>-16.131999999999948</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ref="F26" si="44">+F21-F25</f>
+        <f t="shared" ref="F26" si="46">+F21-F25</f>
         <v>-63.253000000000043</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" ref="G26" si="45">+G21-G25</f>
+        <f t="shared" ref="G26" si="47">+G21-G25</f>
         <v>-34.027000000000044</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" ref="H26" si="46">+H21-H25</f>
+        <f t="shared" ref="H26" si="48">+H21-H25</f>
         <v>-99.238999999999919</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26" si="47">+I21-I25</f>
+        <f t="shared" ref="I26" si="49">+I21-I25</f>
         <v>-161.56700000000023</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" ref="J26" si="48">+J21-J25</f>
+        <f t="shared" ref="J26" si="50">+J21-J25</f>
         <v>-50.388999999999896</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26" si="49">+K21-K25</f>
+        <f t="shared" ref="K26" si="51">+K21-K25</f>
         <v>-18.869000000000028</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" ref="L26" si="50">+L21-L25</f>
+        <f t="shared" ref="L26" si="52">+L21-L25</f>
         <v>-49.061999999999898</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26" si="51">+M21-M25</f>
+        <f t="shared" ref="M26" si="53">+M21-M25</f>
         <v>17.803999999999974</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" ref="N26:O26" si="52">+N21-N25</f>
+        <f t="shared" ref="N26:P26" si="54">+N21-N25</f>
         <v>-66.949999999999932</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-31.977999999999838</v>
       </c>
-      <c r="R26" s="2">
-        <f>+R21-R25</f>
+      <c r="P26" s="2">
+        <f t="shared" si="54"/>
+        <v>-57.479000000000042</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" ref="S26:X26" si="55">+S21-S25</f>
+        <v>-5.8999999999999773</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="55"/>
+        <v>-55.899999999999977</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="55"/>
+        <v>-46</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="55"/>
+        <v>-63.400000000000091</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="55"/>
+        <v>14.100000000000136</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="55"/>
+        <v>141.39999999999986</v>
+      </c>
+      <c r="Y26" s="2">
+        <f>+Y21-Y25</f>
         <v>70.083000000000538</v>
       </c>
-      <c r="S26" s="2">
-        <f t="shared" ref="S26:AB26" si="53">+S21-S25</f>
+      <c r="Z26" s="2">
+        <f t="shared" ref="Z26:AI26" si="56">+Z21-Z25</f>
         <v>-345.22200000000021</v>
       </c>
-      <c r="T26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AA26" s="2">
+        <f t="shared" si="56"/>
         <v>-117.07699999999932</v>
       </c>
-      <c r="U26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AB26" s="2">
+        <f t="shared" si="56"/>
         <v>53.446627100000114</v>
       </c>
-      <c r="V26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AC26" s="2">
+        <f t="shared" si="56"/>
         <v>920.71943794599974</v>
       </c>
-      <c r="W26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AD26" s="2">
+        <f t="shared" si="56"/>
         <v>1298.5035762545594</v>
       </c>
-      <c r="X26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AE26" s="2">
+        <f t="shared" si="56"/>
         <v>1907.3270096968117</v>
       </c>
-      <c r="Y26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AF26" s="2">
+        <f t="shared" si="56"/>
         <v>2985.8732522122173</v>
       </c>
-      <c r="Z26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AG26" s="2">
+        <f t="shared" si="56"/>
         <v>3859.5273909737007</v>
       </c>
-      <c r="AA26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AH26" s="2">
+        <f t="shared" si="56"/>
         <v>4708.7436981503743</v>
       </c>
-      <c r="AB26" s="2">
-        <f t="shared" si="53"/>
+      <c r="AI26" s="2">
+        <f t="shared" si="56"/>
         <v>5740.4306160384294</v>
       </c>
     </row>
-    <row r="27" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -6595,28 +7004,32 @@
         <f>28.564-7.318</f>
         <v>21.246000000000002</v>
       </c>
-      <c r="R27" s="2">
+      <c r="P27" s="2">
+        <f>25.586-7.291</f>
+        <v>18.294999999999998</v>
+      </c>
+      <c r="Y27" s="2">
         <f>2.284-41.466</f>
         <v>-39.182000000000002</v>
       </c>
-      <c r="S27" s="2">
+      <c r="Z27" s="2">
         <f>49.732-30.147</f>
         <v>19.585000000000001</v>
       </c>
-      <c r="T27" s="2">
+      <c r="AA27" s="2">
         <f>96.663-34.077</f>
         <v>62.585999999999999</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-    </row>
-    <row r="28" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -6659,150 +7072,157 @@
       <c r="O28" s="2">
         <v>-19.431999999999999</v>
       </c>
-      <c r="R28" s="2">
+      <c r="P28" s="2">
+        <v>-7.9989999999999997</v>
+      </c>
+      <c r="Y28" s="2">
         <v>-501.839</v>
       </c>
-      <c r="S28" s="2">
+      <c r="Z28" s="2">
         <v>14.500999999999999</v>
       </c>
-      <c r="T28" s="2">
+      <c r="AA28" s="2">
         <v>-30.916</v>
       </c>
-      <c r="U28" s="2">
-        <f>+T88*$AE$11</f>
-        <v>78.810649999999995</v>
-      </c>
-      <c r="V28" s="2">
-        <f t="shared" ref="V28:AB28" si="54">+U88*$AE$11</f>
-        <v>84.034812445450001</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" si="54"/>
-        <v>123.72260533591225</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" si="54"/>
-        <v>179.9005395087359</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" si="54"/>
-        <v>262.34602770235506</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="54"/>
-        <v>390.65068925898072</v>
-      </c>
-      <c r="AA28" s="2">
-        <f t="shared" si="54"/>
-        <v>558.53272342817161</v>
-      </c>
       <c r="AB28" s="2">
-        <f t="shared" si="54"/>
-        <v>766.59014208052417</v>
-      </c>
-    </row>
-    <row r="29" spans="2:77" x14ac:dyDescent="0.2">
+        <f>+AA88*$AL$11</f>
+        <v>189.14555999999996</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28:AI28" si="57">+AB88*$AL$11</f>
+        <v>212.14329933707998</v>
+      </c>
+      <c r="AD28" s="2">
+        <f t="shared" si="57"/>
+        <v>319.53868683151592</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" si="57"/>
+        <v>472.92909337207584</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" si="57"/>
+        <v>698.57737194300637</v>
+      </c>
+      <c r="AG28" s="2">
+        <f t="shared" si="57"/>
+        <v>1047.8632911129214</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="57"/>
+        <v>1513.0839277747332</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="57"/>
+        <v>2102.9131867124333</v>
+      </c>
+    </row>
+    <row r="29" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29" si="55">+C26+C27+C28</f>
+        <f t="shared" ref="C29" si="58">+C26+C27+C28</f>
         <v>-392.11800000000005</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29" si="56">+D26+D27+D28</f>
+        <f t="shared" ref="D29" si="59">+D26+D27+D28</f>
         <v>-73.037999999999968</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ref="E29" si="57">+E26+E27+E28</f>
+        <f t="shared" ref="E29" si="60">+E26+E27+E28</f>
         <v>-30.556999999999949</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29" si="58">+F26+F27+F28</f>
+        <f t="shared" ref="F29" si="61">+F26+F27+F28</f>
         <v>-68.859000000000037</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" ref="G29" si="59">+G26+G27+G28</f>
+        <f t="shared" ref="G29" si="62">+G26+G27+G28</f>
         <v>-5.7160000000000437</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" ref="H29" si="60">+H26+H27+H28</f>
+        <f t="shared" ref="H29" si="63">+H26+H27+H28</f>
         <v>-104.53299999999992</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29" si="61">+I26+I27+I28</f>
+        <f t="shared" ref="I29" si="64">+I26+I27+I28</f>
         <v>-155.44100000000026</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" ref="J29" si="62">+J26+J27+J28</f>
+        <f t="shared" ref="J29" si="65">+J26+J27+J28</f>
         <v>-45.445999999999898</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" ref="K29" si="63">+K26+K27+K28</f>
+        <f t="shared" ref="K29" si="66">+K26+K27+K28</f>
         <v>-10.954000000000029</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29" si="64">+L26+L27+L28</f>
+        <f t="shared" ref="L29" si="67">+L26+L27+L28</f>
         <v>-40.108999999999902</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" ref="M29" si="65">+M26+M27+M28</f>
+        <f t="shared" ref="M29" si="68">+M26+M27+M28</f>
         <v>19.774999999999977</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" ref="N29:O29" si="66">+N26+N27+N28</f>
+        <f t="shared" ref="N29:P29" si="69">+N26+N27+N28</f>
         <v>-54.118999999999929</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-30.163999999999835</v>
       </c>
-      <c r="R29" s="2">
-        <f>+R26+R27+R28</f>
+      <c r="P29" s="2">
+        <f t="shared" si="69"/>
+        <v>-47.183000000000042</v>
+      </c>
+      <c r="Y29" s="2">
+        <f>+Y26+Y27+Y28</f>
         <v>-470.93799999999948</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" ref="S29:AB29" si="67">+S26+S27+S28</f>
+      <c r="Z29" s="2">
+        <f t="shared" ref="Z29:AI29" si="70">+Z26+Z27+Z28</f>
         <v>-311.13600000000025</v>
       </c>
-      <c r="T29" s="2">
-        <f t="shared" si="67"/>
+      <c r="AA29" s="2">
+        <f t="shared" si="70"/>
         <v>-85.406999999999314</v>
       </c>
-      <c r="U29" s="2">
-        <f t="shared" si="67"/>
-        <v>132.25727710000012</v>
-      </c>
-      <c r="V29" s="2">
-        <f t="shared" si="67"/>
-        <v>1004.7542503914498</v>
-      </c>
-      <c r="W29" s="2">
-        <f t="shared" si="67"/>
-        <v>1422.2261815904717</v>
-      </c>
-      <c r="X29" s="2">
-        <f t="shared" si="67"/>
-        <v>2087.2275492055478</v>
-      </c>
-      <c r="Y29" s="2">
-        <f t="shared" si="67"/>
-        <v>3248.2192799145723</v>
-      </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="67"/>
-        <v>4250.1780802326812</v>
-      </c>
-      <c r="AA29" s="2">
-        <f t="shared" si="67"/>
-        <v>5267.2764215785455</v>
-      </c>
       <c r="AB29" s="2">
-        <f t="shared" si="67"/>
-        <v>6507.0207581189534</v>
-      </c>
-    </row>
-    <row r="30" spans="2:77" x14ac:dyDescent="0.2">
+        <f t="shared" si="70"/>
+        <v>242.59218710000007</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="70"/>
+        <v>1132.8627372830797</v>
+      </c>
+      <c r="AD29" s="2">
+        <f t="shared" si="70"/>
+        <v>1618.0422630860753</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" si="70"/>
+        <v>2380.2561030688876</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" si="70"/>
+        <v>3684.4506241552235</v>
+      </c>
+      <c r="AG29" s="2">
+        <f t="shared" si="70"/>
+        <v>4907.3906820866223</v>
+      </c>
+      <c r="AH29" s="2">
+        <f t="shared" si="70"/>
+        <v>6221.827625925107</v>
+      </c>
+      <c r="AI29" s="2">
+        <f t="shared" si="70"/>
+        <v>7843.3438027508628</v>
+      </c>
+    </row>
+    <row r="30" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
@@ -6845,348 +7265,361 @@
       <c r="O30" s="2">
         <v>93.605000000000004</v>
       </c>
-      <c r="R30" s="2">
+      <c r="P30" s="2">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="Y30" s="2">
         <v>48.572000000000003</v>
       </c>
-      <c r="S30" s="2">
+      <c r="Z30" s="2">
         <v>175.625</v>
       </c>
-      <c r="T30" s="2">
+      <c r="AA30" s="2">
         <v>215.11199999999999</v>
       </c>
-      <c r="U30" s="2">
-        <f>+U29*0.21</f>
-        <v>27.774028191000024</v>
-      </c>
-      <c r="V30" s="2">
-        <f t="shared" ref="V30:AB30" si="68">+V29*0.21</f>
-        <v>210.99839258220445</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="68"/>
-        <v>298.66749813399906</v>
-      </c>
-      <c r="X30" s="2">
-        <f t="shared" si="68"/>
-        <v>438.31778533316503</v>
-      </c>
-      <c r="Y30" s="2">
-        <f t="shared" si="68"/>
-        <v>682.12604878206014</v>
-      </c>
-      <c r="Z30" s="2">
-        <f t="shared" si="68"/>
-        <v>892.53739684886307</v>
-      </c>
-      <c r="AA30" s="2">
-        <f t="shared" si="68"/>
-        <v>1106.1280485314944</v>
-      </c>
       <c r="AB30" s="2">
-        <f t="shared" si="68"/>
-        <v>1366.4743592049801</v>
-      </c>
-    </row>
-    <row r="31" spans="2:77" x14ac:dyDescent="0.2">
+        <f>+AB29*0.21</f>
+        <v>50.944359291000012</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" ref="AC30:AI30" si="71">+AC29*0.21</f>
+        <v>237.90117482944672</v>
+      </c>
+      <c r="AD30" s="2">
+        <f t="shared" si="71"/>
+        <v>339.78887524807578</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="71"/>
+        <v>499.85378164446638</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="71"/>
+        <v>773.73463107259693</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="71"/>
+        <v>1030.5520432381907</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="71"/>
+        <v>1306.5838014442725</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="71"/>
+        <v>1647.1021985776811</v>
+      </c>
+    </row>
+    <row r="31" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31" si="69">+C29-C30</f>
+        <f t="shared" ref="C31" si="72">+C29-C30</f>
         <v>-400.10200000000003</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ref="D31" si="70">+D29-D30</f>
+        <f t="shared" ref="D31" si="73">+D29-D30</f>
         <v>-87.193999999999974</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" ref="E31" si="71">+E29-E30</f>
+        <f t="shared" ref="E31" si="74">+E29-E30</f>
         <v>-31.08699999999995</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ref="F31" si="72">+F29-F30</f>
+        <f t="shared" ref="F31" si="75">+F29-F30</f>
         <v>-105.46300000000004</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" ref="G31" si="73">+G29-G30</f>
+        <f t="shared" ref="G31" si="76">+G29-G30</f>
         <v>-13.741000000000044</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31" si="74">+H29-H30</f>
+        <f t="shared" ref="H31" si="77">+H29-H30</f>
         <v>-205.03099999999992</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" ref="I31" si="75">+I29-I30</f>
+        <f t="shared" ref="I31" si="78">+I29-I30</f>
         <v>-209.03700000000026</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31" si="76">+J29-J30</f>
+        <f t="shared" ref="J31" si="79">+J29-J30</f>
         <v>-58.951999999999899</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" ref="K31" si="77">+K29-K30</f>
+        <f t="shared" ref="K31" si="80">+K29-K30</f>
         <v>-31.883000000000028</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" ref="L31" si="78">+L29-L30</f>
+        <f t="shared" ref="L31" si="81">+L29-L30</f>
         <v>-84.468999999999909</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" ref="M31" si="79">+M29-M30</f>
+        <f t="shared" ref="M31" si="82">+M29-M30</f>
         <v>12.751999999999978</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" ref="N31:O31" si="80">+N29-N30</f>
+        <f t="shared" ref="N31:P31" si="83">+N29-N30</f>
         <v>-196.91899999999993</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>-123.76899999999983</v>
       </c>
-      <c r="P31" s="4"/>
+      <c r="P31" s="5">
+        <f t="shared" si="83"/>
+        <v>-56.158000000000044</v>
+      </c>
       <c r="Q31" s="4"/>
-      <c r="R31" s="5">
-        <f>+R29-R30</f>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="5">
+        <f>+Y29-Y30</f>
         <v>-519.50999999999954</v>
       </c>
-      <c r="S31" s="5">
-        <f t="shared" ref="S31:AB31" si="81">+S29-S30</f>
+      <c r="Z31" s="5">
+        <f t="shared" ref="Z31:AI31" si="84">+Z29-Z30</f>
         <v>-486.76100000000025</v>
       </c>
-      <c r="T31" s="5">
-        <f t="shared" si="81"/>
+      <c r="AA31" s="5">
+        <f t="shared" si="84"/>
         <v>-300.51899999999932</v>
       </c>
-      <c r="U31" s="5">
-        <f t="shared" si="81"/>
-        <v>104.4832489090001</v>
-      </c>
-      <c r="V31" s="5">
-        <f t="shared" si="81"/>
-        <v>793.7558578092453</v>
-      </c>
-      <c r="W31" s="5">
-        <f t="shared" si="81"/>
-        <v>1123.5586834564726</v>
-      </c>
-      <c r="X31" s="5">
-        <f t="shared" si="81"/>
-        <v>1648.9097638723829</v>
-      </c>
-      <c r="Y31" s="5">
-        <f t="shared" si="81"/>
-        <v>2566.0932311325123</v>
-      </c>
-      <c r="Z31" s="5">
-        <f t="shared" si="81"/>
-        <v>3357.6406833838182</v>
-      </c>
-      <c r="AA31" s="5">
-        <f t="shared" si="81"/>
-        <v>4161.1483730470509</v>
-      </c>
       <c r="AB31" s="5">
-        <f t="shared" si="81"/>
-        <v>5140.5463989139735</v>
+        <f t="shared" si="84"/>
+        <v>191.64782780900006</v>
       </c>
       <c r="AC31" s="5">
-        <f>+AB31*(1+$AE$10)</f>
-        <v>5243.3573268922528</v>
+        <f t="shared" si="84"/>
+        <v>894.96156245363295</v>
       </c>
       <c r="AD31" s="5">
-        <f t="shared" ref="AD31:BY31" si="82">+AC31*(1+$AE$10)</f>
-        <v>5348.2244734300975</v>
+        <f t="shared" si="84"/>
+        <v>1278.2533878379995</v>
       </c>
       <c r="AE31" s="5">
-        <f t="shared" si="82"/>
-        <v>5455.1889628986992</v>
+        <f t="shared" si="84"/>
+        <v>1880.4023214244212</v>
       </c>
       <c r="AF31" s="5">
-        <f t="shared" si="82"/>
-        <v>5564.2927421566728</v>
+        <f t="shared" si="84"/>
+        <v>2910.7159930826265</v>
       </c>
       <c r="AG31" s="5">
-        <f t="shared" si="82"/>
-        <v>5675.578596999806</v>
+        <f t="shared" si="84"/>
+        <v>3876.8386388484314</v>
       </c>
       <c r="AH31" s="5">
-        <f t="shared" si="82"/>
-        <v>5789.0901689398024</v>
+        <f t="shared" si="84"/>
+        <v>4915.2438244808345</v>
       </c>
       <c r="AI31" s="5">
-        <f t="shared" si="82"/>
-        <v>5904.8719723185986</v>
+        <f t="shared" si="84"/>
+        <v>6196.2416041731813</v>
       </c>
       <c r="AJ31" s="5">
-        <f t="shared" si="82"/>
-        <v>6022.9694117649706</v>
+        <f>+AI31*(1+$AL$10)</f>
+        <v>6506.0536843818409</v>
       </c>
       <c r="AK31" s="5">
-        <f t="shared" si="82"/>
-        <v>6143.4288000002698</v>
+        <f t="shared" ref="AK31:CF31" si="85">+AJ31*(1+$AL$10)</f>
+        <v>6831.3563686009329</v>
       </c>
       <c r="AL31" s="5">
-        <f t="shared" si="82"/>
-        <v>6266.2973760002751</v>
+        <f t="shared" si="85"/>
+        <v>7172.9241870309797</v>
       </c>
       <c r="AM31" s="5">
-        <f t="shared" si="82"/>
-        <v>6391.6233235202808</v>
+        <f t="shared" si="85"/>
+        <v>7531.570396382529</v>
       </c>
       <c r="AN31" s="5">
-        <f t="shared" si="82"/>
-        <v>6519.4557899906868</v>
+        <f t="shared" si="85"/>
+        <v>7908.148916201656</v>
       </c>
       <c r="AO31" s="5">
-        <f t="shared" si="82"/>
-        <v>6649.8449057905009</v>
+        <f t="shared" si="85"/>
+        <v>8303.5563620117391</v>
       </c>
       <c r="AP31" s="5">
-        <f t="shared" si="82"/>
-        <v>6782.8418039063108</v>
+        <f t="shared" si="85"/>
+        <v>8718.7341801123257</v>
       </c>
       <c r="AQ31" s="5">
-        <f t="shared" si="82"/>
-        <v>6918.4986399844374</v>
+        <f t="shared" si="85"/>
+        <v>9154.6708891179424</v>
       </c>
       <c r="AR31" s="5">
-        <f t="shared" si="82"/>
-        <v>7056.8686127841265</v>
+        <f t="shared" si="85"/>
+        <v>9612.4044335738399</v>
       </c>
       <c r="AS31" s="5">
-        <f t="shared" si="82"/>
-        <v>7198.0059850398093</v>
+        <f t="shared" si="85"/>
+        <v>10093.024655252533</v>
       </c>
       <c r="AT31" s="5">
-        <f t="shared" si="82"/>
-        <v>7341.9661047406053</v>
+        <f t="shared" si="85"/>
+        <v>10597.675888015161</v>
       </c>
       <c r="AU31" s="5">
-        <f t="shared" si="82"/>
-        <v>7488.8054268354172</v>
+        <f t="shared" si="85"/>
+        <v>11127.55968241592</v>
       </c>
       <c r="AV31" s="5">
-        <f t="shared" si="82"/>
-        <v>7638.5815353721255</v>
+        <f t="shared" si="85"/>
+        <v>11683.937666536716</v>
       </c>
       <c r="AW31" s="5">
-        <f t="shared" si="82"/>
-        <v>7791.3531660795679</v>
+        <f t="shared" si="85"/>
+        <v>12268.134549863553</v>
       </c>
       <c r="AX31" s="5">
-        <f t="shared" si="82"/>
-        <v>7947.1802294011595</v>
+        <f t="shared" si="85"/>
+        <v>12881.541277356731</v>
       </c>
       <c r="AY31" s="5">
-        <f t="shared" si="82"/>
-        <v>8106.1238339891825</v>
+        <f t="shared" si="85"/>
+        <v>13525.618341224568</v>
       </c>
       <c r="AZ31" s="5">
-        <f t="shared" si="82"/>
-        <v>8268.2463106689665</v>
+        <f t="shared" si="85"/>
+        <v>14201.899258285797</v>
       </c>
       <c r="BA31" s="5">
-        <f t="shared" si="82"/>
-        <v>8433.6112368823469</v>
+        <f t="shared" si="85"/>
+        <v>14911.994221200088</v>
       </c>
       <c r="BB31" s="5">
-        <f t="shared" si="82"/>
-        <v>8602.2834616199943</v>
+        <f t="shared" si="85"/>
+        <v>15657.593932260093</v>
       </c>
       <c r="BC31" s="5">
-        <f t="shared" si="82"/>
-        <v>8774.3291308523949</v>
+        <f t="shared" si="85"/>
+        <v>16440.4736288731</v>
       </c>
       <c r="BD31" s="5">
-        <f t="shared" si="82"/>
-        <v>8949.8157134694429</v>
+        <f t="shared" si="85"/>
+        <v>17262.497310316758</v>
       </c>
       <c r="BE31" s="5">
-        <f t="shared" si="82"/>
-        <v>9128.8120277388316</v>
+        <f t="shared" si="85"/>
+        <v>18125.622175832596</v>
       </c>
       <c r="BF31" s="5">
-        <f t="shared" si="82"/>
-        <v>9311.3882682936091</v>
+        <f t="shared" si="85"/>
+        <v>19031.903284624226</v>
       </c>
       <c r="BG31" s="5">
-        <f t="shared" si="82"/>
-        <v>9497.6160336594821</v>
+        <f t="shared" si="85"/>
+        <v>19983.49844885544</v>
       </c>
       <c r="BH31" s="5">
-        <f t="shared" si="82"/>
-        <v>9687.5683543326722</v>
+        <f t="shared" si="85"/>
+        <v>20982.673371298213</v>
       </c>
       <c r="BI31" s="5">
-        <f t="shared" si="82"/>
-        <v>9881.319721419326</v>
+        <f t="shared" si="85"/>
+        <v>22031.807039863124</v>
       </c>
       <c r="BJ31" s="5">
-        <f t="shared" si="82"/>
-        <v>10078.946115847713</v>
+        <f t="shared" si="85"/>
+        <v>23133.397391856281</v>
       </c>
       <c r="BK31" s="5">
-        <f t="shared" si="82"/>
-        <v>10280.525038164667</v>
+        <f t="shared" si="85"/>
+        <v>24290.067261449094</v>
       </c>
       <c r="BL31" s="5">
-        <f t="shared" si="82"/>
-        <v>10486.135538927962</v>
+        <f t="shared" si="85"/>
+        <v>25504.570624521552</v>
       </c>
       <c r="BM31" s="5">
-        <f t="shared" si="82"/>
-        <v>10695.858249706522</v>
+        <f t="shared" si="85"/>
+        <v>26779.799155747631</v>
       </c>
       <c r="BN31" s="5">
-        <f t="shared" si="82"/>
-        <v>10909.775414700653</v>
+        <f t="shared" si="85"/>
+        <v>28118.789113535015</v>
       </c>
       <c r="BO31" s="5">
-        <f t="shared" si="82"/>
-        <v>11127.970922994666</v>
+        <f t="shared" si="85"/>
+        <v>29524.728569211766</v>
       </c>
       <c r="BP31" s="5">
-        <f t="shared" si="82"/>
-        <v>11350.53034145456</v>
+        <f t="shared" si="85"/>
+        <v>31000.964997672356</v>
       </c>
       <c r="BQ31" s="5">
-        <f t="shared" si="82"/>
-        <v>11577.540948283651</v>
+        <f t="shared" si="85"/>
+        <v>32551.013247555977</v>
       </c>
       <c r="BR31" s="5">
-        <f t="shared" si="82"/>
-        <v>11809.091767249325</v>
+        <f t="shared" si="85"/>
+        <v>34178.563909933779</v>
       </c>
       <c r="BS31" s="5">
-        <f t="shared" si="82"/>
-        <v>12045.273602594312</v>
+        <f t="shared" si="85"/>
+        <v>35887.492105430472</v>
       </c>
       <c r="BT31" s="5">
-        <f t="shared" si="82"/>
-        <v>12286.179074646199</v>
+        <f t="shared" si="85"/>
+        <v>37681.866710702001</v>
       </c>
       <c r="BU31" s="5">
-        <f t="shared" si="82"/>
-        <v>12531.902656139124</v>
+        <f t="shared" si="85"/>
+        <v>39565.960046237102</v>
       </c>
       <c r="BV31" s="5">
-        <f t="shared" si="82"/>
-        <v>12782.540709261906</v>
+        <f t="shared" si="85"/>
+        <v>41544.25804854896</v>
       </c>
       <c r="BW31" s="5">
-        <f t="shared" si="82"/>
-        <v>13038.191523447145</v>
+        <f t="shared" si="85"/>
+        <v>43621.470950976407</v>
       </c>
       <c r="BX31" s="5">
-        <f t="shared" si="82"/>
-        <v>13298.955353916088</v>
+        <f t="shared" si="85"/>
+        <v>45802.544498525232</v>
       </c>
       <c r="BY31" s="5">
-        <f t="shared" si="82"/>
-        <v>13564.934460994409</v>
-      </c>
-    </row>
-    <row r="32" spans="2:77" x14ac:dyDescent="0.2">
+        <f t="shared" si="85"/>
+        <v>48092.671723451494</v>
+      </c>
+      <c r="BZ31" s="5">
+        <f t="shared" si="85"/>
+        <v>50497.305309624069</v>
+      </c>
+      <c r="CA31" s="5">
+        <f t="shared" si="85"/>
+        <v>53022.170575105272</v>
+      </c>
+      <c r="CB31" s="5">
+        <f t="shared" si="85"/>
+        <v>55673.279103860536</v>
+      </c>
+      <c r="CC31" s="5">
+        <f t="shared" si="85"/>
+        <v>58456.943059053563</v>
+      </c>
+      <c r="CD31" s="5">
+        <f t="shared" si="85"/>
+        <v>61379.790212006243</v>
+      </c>
+      <c r="CE31" s="5">
+        <f t="shared" si="85"/>
+        <v>64448.77972260656</v>
+      </c>
+      <c r="CF31" s="5">
+        <f t="shared" si="85"/>
+        <v>67671.218708736895</v>
+      </c>
+    </row>
+    <row r="32" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
@@ -7229,151 +7662,182 @@
       <c r="O32" s="2">
         <v>260.47699999999998</v>
       </c>
-      <c r="R32" s="2">
+      <c r="P32" s="2">
+        <v>261.14699999999999</v>
+      </c>
+      <c r="Y32" s="2">
         <v>253.31200000000001</v>
       </c>
-      <c r="S32" s="2">
+      <c r="Z32" s="2">
         <v>256.30700000000002</v>
       </c>
-      <c r="T32" s="2">
+      <c r="AA32" s="2">
         <v>259.13299999999998</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="2">
+        <f>+AA32*1.01</f>
+        <v>261.72433000000001</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" ref="AC32:AI32" si="86">+AB32*1.01</f>
+        <v>264.34157329999999</v>
+      </c>
+      <c r="AD32" s="2">
+        <f t="shared" si="86"/>
+        <v>266.98498903299998</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" si="86"/>
+        <v>269.65483892332998</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="86"/>
+        <v>272.3513873125633</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" si="86"/>
+        <v>275.07490118568893</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="86"/>
+        <v>277.82565019754583</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="86"/>
+        <v>280.6039066995213</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ref="C33" si="83">+C31/C32</f>
+        <f t="shared" ref="C33" si="87">+C31/C32</f>
         <v>-1.5870387852728616</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" ref="D33" si="84">+D31/D32</f>
+        <f t="shared" ref="D33" si="88">+D31/D32</f>
         <v>-0.34991251585148553</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ref="E33" si="85">+E31/E32</f>
+        <f t="shared" ref="E33" si="89">+E31/E32</f>
         <v>-0.1225233817982601</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" ref="F33" si="86">+F31/F32</f>
+        <f t="shared" ref="F33" si="90">+F31/F32</f>
         <v>-0.41442223811507312</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33" si="87">+G31/G32</f>
+        <f t="shared" ref="G33" si="91">+G31/G32</f>
         <v>-5.3851007379481064E-2</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33" si="88">+H31/H32</f>
+        <f t="shared" ref="H33" si="92">+H31/H32</f>
         <v>-0.80129673198527374</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" ref="I33" si="89">+I31/I32</f>
+        <f t="shared" ref="I33" si="93">+I31/I32</f>
         <v>-0.8139277718290675</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" ref="J33" si="90">+J31/J32</f>
+        <f t="shared" ref="J33" si="94">+J31/J32</f>
         <v>-0.22903853700041532</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ref="K33" si="91">+K31/K32</f>
+        <f t="shared" ref="K33" si="95">+K31/K32</f>
         <v>-0.12362208082758525</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" ref="L33" si="92">+L31/L32</f>
+        <f t="shared" ref="L33" si="96">+L31/L32</f>
         <v>-0.32663833473188392</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" ref="M33" si="93">+M31/M32</f>
+        <f t="shared" ref="M33" si="97">+M31/M32</f>
         <v>4.8713031652774401E-2</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" ref="N33:O33" si="94">+N31/N32</f>
+        <f t="shared" ref="N33:P33" si="98">+N31/N32</f>
         <v>-0.75643231947634859</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.47516287426528964</v>
       </c>
-      <c r="R33" s="6">
-        <f>+R31/R32</f>
+      <c r="P33" s="6">
+        <f t="shared" si="98"/>
+        <v>-0.21504363442811919</v>
+      </c>
+      <c r="Y33" s="6">
+        <f>+Y31/Y32</f>
         <v>-2.0508700732693259</v>
       </c>
-      <c r="S33" s="6">
-        <f t="shared" ref="S33:AB33" si="95">+S31/S32</f>
+      <c r="Z33" s="6">
+        <f t="shared" ref="Z33:AI33" si="99">+Z31/Z32</f>
         <v>-1.8991326807305311</v>
       </c>
-      <c r="T33" s="6">
-        <f t="shared" si="95"/>
+      <c r="AA33" s="6">
+        <f t="shared" si="99"/>
         <v>-1.1597094928087095</v>
       </c>
-      <c r="U33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB33" s="6" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB33" s="6">
+        <f t="shared" si="99"/>
+        <v>0.73225071512839501</v>
+      </c>
+      <c r="AC33" s="6">
+        <f t="shared" si="99"/>
+        <v>3.3856254666304242</v>
+      </c>
+      <c r="AD33" s="6">
+        <f t="shared" si="99"/>
+        <v>4.7877350425869984</v>
+      </c>
+      <c r="AE33" s="6">
+        <f t="shared" si="99"/>
+        <v>6.9733676166629799</v>
+      </c>
+      <c r="AF33" s="6">
+        <f t="shared" si="99"/>
+        <v>10.687355117975409</v>
+      </c>
+      <c r="AG33" s="6">
+        <f t="shared" si="99"/>
+        <v>14.093756362858336</v>
+      </c>
+      <c r="AH33" s="6">
+        <f t="shared" si="99"/>
+        <v>17.691828745783148</v>
+      </c>
+      <c r="AI33" s="6">
+        <f t="shared" si="99"/>
+        <v>22.081808044134945</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G36" si="96">+G4/C4-1</f>
+        <f t="shared" ref="G35:G36" si="100">+G4/C4-1</f>
         <v>0.49549731676836006</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ref="H35:H36" si="97">+H4/D4-1</f>
+        <f t="shared" ref="H35:H36" si="101">+H4/D4-1</f>
         <v>0.39728323120236841</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" ref="I35:I36" si="98">+I4/E4-1</f>
+        <f t="shared" ref="I35:I36" si="102">+I4/E4-1</f>
         <v>0.37028350320467784</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:J36" si="99">+J4/F4-1</f>
+        <f t="shared" ref="J35:J36" si="103">+J4/F4-1</f>
         <v>0.3388866845137346</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" ref="K35:K36" si="100">+K4/G4-1</f>
+        <f t="shared" ref="K35:K36" si="104">+K4/G4-1</f>
         <v>0.30876027675027329</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" ref="L35:L36" si="101">+L4/H4-1</f>
+        <f t="shared" ref="L35:L36" si="105">+L4/H4-1</f>
         <v>0.31071753475468911</v>
       </c>
       <c r="M35" s="8">
@@ -7381,136 +7845,135 @@
         <v>0.40841746858074357</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N36" si="102">+N4/J4-1</f>
+        <f t="shared" ref="N35" si="106">+N4/J4-1</f>
         <v>0.33656824385748374</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" ref="O35:O36" si="103">+O4/K4-1</f>
+        <f t="shared" ref="O35" si="107">+O4/K4-1</f>
         <v>0.32860553391973091</v>
       </c>
-      <c r="S35" s="8">
-        <f>+S4/R4-1</f>
+      <c r="P35" s="8">
+        <f t="shared" ref="P35" si="108">+P4/L4-1</f>
+        <v>0.30151547821721314</v>
+      </c>
+      <c r="Z35" s="8">
+        <f>+Z4/Y4-1</f>
         <v>0.39388927202955482</v>
       </c>
-      <c r="T35" s="8">
-        <f>+T4/S4-1</f>
+      <c r="AA35" s="8">
+        <f>+AA4/Z4-1</f>
         <v>0.34278424239438099</v>
       </c>
-      <c r="U35" s="8">
-        <f t="shared" ref="U35:AB35" si="104">+U4/T4-1</f>
+      <c r="AB35" s="8">
+        <f t="shared" ref="AB35:AI35" si="109">+AB4/AA4-1</f>
         <v>0.25</v>
       </c>
-      <c r="V35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AC35" s="8">
+        <f t="shared" si="109"/>
         <v>0.25</v>
       </c>
-      <c r="W35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AD35" s="8">
+        <f t="shared" si="109"/>
         <v>0.25</v>
       </c>
-      <c r="X35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AE35" s="8">
+        <f t="shared" si="109"/>
         <v>0.25</v>
       </c>
-      <c r="Y35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AF35" s="8">
+        <f t="shared" si="109"/>
         <v>0.25</v>
       </c>
-      <c r="Z35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AG35" s="8">
+        <f t="shared" si="109"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AA35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AH35" s="8">
+        <f t="shared" si="109"/>
         <v>0.17999999999999994</v>
       </c>
-      <c r="AB35" s="8">
-        <f t="shared" si="104"/>
+      <c r="AI35" s="8">
+        <f t="shared" si="109"/>
         <v>0.17999999999999994</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>-0.13036985986675864</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>-0.16556088116544287</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>-0.21696458992961198</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>-0.26619411588880815</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-0.30790296306080223</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>-0.34823576016524715</v>
       </c>
       <c r="M36" s="8">
         <f>+M5/I5-1</f>
         <v>-0.68660122048288663</v>
       </c>
-      <c r="N36" s="8">
-        <f t="shared" si="102"/>
-        <v>-1</v>
-      </c>
-      <c r="O36" s="8">
-        <f t="shared" si="103"/>
-        <v>-1</v>
-      </c>
-      <c r="S36" s="8">
-        <f>+S5/R5-1</f>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Z36" s="8">
+        <f>+Z5/Y5-1</f>
         <v>-0.19257408443535051</v>
       </c>
-      <c r="T36" s="8">
-        <f>+T5/S5-1</f>
+      <c r="AA36" s="8">
+        <f>+AA5/Z5-1</f>
         <v>-0.55663459566015749</v>
       </c>
-      <c r="U36" s="8">
-        <f t="shared" ref="U36:AB36" si="105">+U5/T5-1</f>
+      <c r="AB36" s="8">
+        <f t="shared" ref="AB36:AI36" si="110">+AB5/AA5-1</f>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="V36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AC36" s="8">
+        <f t="shared" si="110"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="W36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AD36" s="8">
+        <f t="shared" si="110"/>
         <v>-3.0000000000000138E-2</v>
       </c>
-      <c r="X36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AE36" s="8">
+        <f t="shared" si="110"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="Y36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AF36" s="8">
+        <f t="shared" si="110"/>
         <v>-3.0000000000000138E-2</v>
       </c>
-      <c r="Z36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AG36" s="8">
+        <f t="shared" si="110"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="AA36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AH36" s="8">
+        <f t="shared" si="110"/>
         <v>-2.9999999999999916E-2</v>
       </c>
-      <c r="AB36" s="8">
-        <f t="shared" si="105"/>
+      <c r="AI36" s="8">
+        <f t="shared" si="110"/>
         <v>-3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>109</v>
       </c>
@@ -7523,24 +7986,28 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="S37" s="8">
-        <f t="shared" ref="S37" si="106">+S14/R14-1</f>
+      <c r="P37" s="7">
+        <f>+P14/L14-1</f>
+        <v>0.29661517735490883</v>
+      </c>
+      <c r="Z37" s="8">
+        <f t="shared" ref="Z37" si="111">+Z14/Y14-1</f>
         <v>0.37618118757522656</v>
       </c>
-      <c r="T37" s="8">
-        <f>+T14/S14-1</f>
+      <c r="AA37" s="8">
+        <f>+AA14/Z14-1</f>
         <v>0.29412687041656227</v>
       </c>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
@@ -7553,24 +8020,28 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="S38" s="8">
-        <f t="shared" ref="S38:T38" si="107">+S15/R15-1</f>
+      <c r="P38" s="7">
+        <f t="shared" ref="P38" si="112">+P15/L15-1</f>
+        <v>0.31854577482730262</v>
+      </c>
+      <c r="Z38" s="8">
+        <f t="shared" ref="Z38:AA38" si="113">+Z15/Y15-1</f>
         <v>0.46211533073124422</v>
       </c>
-      <c r="T38" s="8">
-        <f t="shared" si="107"/>
+      <c r="AA38" s="8">
+        <f t="shared" si="113"/>
         <v>0.47512544995367723</v>
       </c>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
@@ -7579,27 +8050,27 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="9">
-        <f t="shared" ref="G39" si="108">+G19/C19-1</f>
+        <f t="shared" ref="G39" si="114">+G19/C19-1</f>
         <v>0.31491928654254542</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" ref="H39" si="109">+H19/D19-1</f>
+        <f t="shared" ref="H39" si="115">+H19/D19-1</f>
         <v>0.26749607131756803</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" ref="I39" si="110">+I19/E19-1</f>
+        <f t="shared" ref="I39" si="116">+I19/E19-1</f>
         <v>0.23627836124949519</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" ref="J39" si="111">+J19/F19-1</f>
+        <f t="shared" ref="J39" si="117">+J19/F19-1</f>
         <v>0.23591382934061222</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39" si="112">+K19/G19-1</f>
+        <f t="shared" ref="K39" si="118">+K19/G19-1</f>
         <v>0.21102884348618778</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" ref="L39" si="113">+L19/H19-1</f>
+        <f t="shared" ref="L39" si="119">+L19/H19-1</f>
         <v>0.21474176811381662</v>
       </c>
       <c r="M39" s="9">
@@ -7607,790 +8078,903 @@
         <v>0.29895035572552597</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" ref="N39" si="114">+N19/J19-1</f>
+        <f t="shared" ref="N39" si="120">+N19/J19-1</f>
         <v>0.20497541257674912</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" ref="O39" si="115">+O19/K19-1</f>
+        <f t="shared" ref="O39" si="121">+O19/K19-1</f>
         <v>0.21477947380532347</v>
       </c>
-      <c r="P39" s="4"/>
+      <c r="P39" s="9">
+        <f t="shared" ref="P39" si="122">+P19/L19-1</f>
+        <v>0.21351840846704562</v>
+      </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="9">
-        <f t="shared" ref="S39" si="116">+S19/R19-1</f>
+      <c r="S39" s="4"/>
+      <c r="T39" s="9">
+        <f t="shared" ref="T39" si="123">+T19/S19-1</f>
+        <v>0.37103478451104799</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" ref="U39" si="124">+U19/T19-1</f>
+        <v>0.40577628849529268</v>
+      </c>
+      <c r="V39" s="9">
+        <f t="shared" ref="V39" si="125">+V19/U19-1</f>
+        <v>0.37355278093076039</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" ref="W39" si="126">+W19/V19-1</f>
+        <v>0.33393934385587976</v>
+      </c>
+      <c r="X39" s="9">
+        <f t="shared" ref="X39" si="127">+X19/W19-1</f>
+        <v>0.29420146202453212</v>
+      </c>
+      <c r="Y39" s="9">
+        <f t="shared" ref="Y39" si="128">+Y19/X19-1</f>
+        <v>0.3416696184960033</v>
+      </c>
+      <c r="Z39" s="9">
+        <f t="shared" ref="Z39" si="129">+Z19/Y19-1</f>
         <v>0.26107592114116795</v>
       </c>
-      <c r="T39" s="9">
-        <f>+T19/S19-1</f>
+      <c r="AA39" s="9">
+        <f>+AA19/Z19-1</f>
         <v>0.23310842638600127</v>
       </c>
-      <c r="U39" s="9">
-        <f t="shared" ref="U39:AB39" si="117">+U19/T19-1</f>
+      <c r="AB39" s="9">
+        <f t="shared" ref="AB39:AI39" si="130">+AB19/AA19-1</f>
         <v>0.22623297189489366</v>
       </c>
-      <c r="V39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AC39" s="9">
+        <f t="shared" si="130"/>
         <v>0.23049250640177465</v>
       </c>
-      <c r="W39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AD39" s="9">
+        <f t="shared" si="130"/>
         <v>0.23402480972643169</v>
       </c>
-      <c r="X39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AE39" s="9">
+        <f t="shared" si="130"/>
         <v>0.23693930675322172</v>
       </c>
-      <c r="Y39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AF39" s="9">
+        <f t="shared" si="130"/>
         <v>0.2393345832415783</v>
       </c>
-      <c r="Z39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AG39" s="9">
+        <f t="shared" si="130"/>
         <v>0.19316540511274827</v>
       </c>
-      <c r="AA39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AH39" s="9">
+        <f t="shared" si="130"/>
         <v>0.17484482530388701</v>
       </c>
-      <c r="AB39" s="9">
-        <f t="shared" si="117"/>
+      <c r="AI39" s="9">
+        <f t="shared" si="130"/>
         <v>0.17556095462756827</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:F41" si="118">+C21/C19</f>
+        <f t="shared" ref="C41:F41" si="131">+C21/C19</f>
         <v>0.84036780321290372</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="118"/>
+        <f t="shared" si="131"/>
         <v>0.83274269962209113</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="118"/>
+        <f t="shared" si="131"/>
         <v>0.83879074830078959</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="118"/>
+        <f t="shared" si="131"/>
         <v>0.82476070651623168</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41" si="119">+G21/G19</f>
+        <f t="shared" ref="G41" si="132">+G21/G19</f>
         <v>0.82735523760453422</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41:J41" si="120">+H21/H19</f>
+        <f t="shared" ref="H41:J41" si="133">+H21/H19</f>
         <v>0.82130825572015265</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="133"/>
         <v>0.81577208223688158</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="133"/>
         <v>0.81921375617880132</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" ref="K41" si="121">+K21/K19</f>
+        <f t="shared" ref="K41" si="134">+K21/K19</f>
         <v>0.81792436910332134</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" ref="L41:M41" si="122">+L21/L19</f>
+        <f t="shared" ref="L41:M41" si="135">+L21/L19</f>
         <v>0.81649451472017054</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="135"/>
         <v>0.82051974219764401</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41:O41" si="123">+N21/N19</f>
+        <f t="shared" ref="N41:O41" si="136">+N21/N19</f>
         <v>0.80778815648777391</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>0.81678103960241832</v>
       </c>
-      <c r="R41" s="8">
-        <f t="shared" ref="R41:S41" si="124">+R21/R19</f>
+      <c r="P41" s="8">
+        <f t="shared" ref="P41" si="137">+P21/P19</f>
+        <v>0.82655777896449412</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" ref="S41:X41" si="138">+S21/S19</f>
+        <v>0.83417195362065188</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="138"/>
+        <v>0.80979735120472307</v>
+      </c>
+      <c r="U41" s="8">
+        <f t="shared" si="138"/>
+        <v>0.80397275822928482</v>
+      </c>
+      <c r="V41" s="8">
+        <f t="shared" si="138"/>
+        <v>0.82621270969341376</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="138"/>
+        <v>0.83347788378143972</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="138"/>
+        <v>0.84117562586759853</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" ref="Y41:Z41" si="139">+Y21/Y19</f>
         <v>0.83841132091896853</v>
       </c>
-      <c r="S41" s="8">
-        <f t="shared" si="124"/>
+      <c r="Z41" s="8">
+        <f t="shared" si="139"/>
         <v>0.82069920985037548</v>
       </c>
-      <c r="T41" s="8">
-        <f>+T21/T19</f>
+      <c r="AA41" s="8">
+        <f>+AA21/AA19</f>
         <v>0.81565308884521026</v>
       </c>
-      <c r="U41" s="8">
-        <f t="shared" ref="U41:AB41" si="125">+U21/U19</f>
+      <c r="AB41" s="8">
+        <f t="shared" ref="AB41:AI41" si="140">+AB21/AB19</f>
         <v>0.82</v>
       </c>
-      <c r="V41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AC41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83</v>
       </c>
-      <c r="W41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AD41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83</v>
       </c>
-      <c r="X41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AE41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83</v>
       </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AF41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="Z41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AG41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83</v>
       </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AH41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="125"/>
+      <c r="AI41" s="8">
+        <f t="shared" si="140"/>
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" ref="C42:F42" si="126">+C26/C19</f>
+        <f t="shared" ref="C42:F42" si="141">+C26/C19</f>
         <v>6.4567508761872436E-2</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-9.6899753967170377E-2</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-2.1785544996495498E-2</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="141"/>
         <v>-8.3245047319110241E-2</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" ref="G42" si="127">+G26/G19</f>
+        <f t="shared" ref="G42" si="142">+G26/G19</f>
         <v>-4.21443363322897E-2</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" ref="H42:J42" si="128">+H26/H19</f>
+        <f t="shared" ref="H42:J42" si="143">+H26/H19</f>
         <v>-0.11371438655030792</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>-0.17648857997079068</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>-5.3656806850829082E-2</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" ref="K42" si="129">+K26/K19</f>
+        <f t="shared" ref="K42" si="144">+K26/K19</f>
         <v>-1.929789573265836E-2</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" ref="L42:M42" si="130">+L26/L19</f>
+        <f t="shared" ref="L42:M42" si="145">+L26/L19</f>
         <v>-4.6280103008178294E-2</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="145"/>
         <v>1.4972315848251807E-2</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:O42" si="131">+N26/N19</f>
+        <f t="shared" ref="N42:O42" si="146">+N26/N19</f>
         <v>-5.9164538392880744E-2</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="131"/>
+        <f t="shared" si="146"/>
         <v>-2.6922471398346862E-2</v>
       </c>
-      <c r="R42" s="8">
-        <f t="shared" ref="R42:S42" si="132">+R26/R19</f>
+      <c r="P42" s="8">
+        <f t="shared" ref="P42" si="147">+P26/P19</f>
+        <v>-4.4679870311077771E-2</v>
+      </c>
+      <c r="S42" s="8">
+        <f t="shared" ref="S42:X42" si="148">+S26/S19</f>
+        <v>-1.2907460074381923E-2</v>
+      </c>
+      <c r="T42" s="8">
+        <f t="shared" si="148"/>
+        <v>-8.9197383117919221E-2</v>
+      </c>
+      <c r="U42" s="8">
+        <f t="shared" si="148"/>
+        <v>-5.2213393870601588E-2</v>
+      </c>
+      <c r="V42" s="8">
+        <f t="shared" si="148"/>
+        <v>-5.2392364267415996E-2</v>
+      </c>
+      <c r="W42" s="8">
+        <f t="shared" si="148"/>
+        <v>8.7349770784290268E-3</v>
+      </c>
+      <c r="X42" s="8">
+        <f t="shared" si="148"/>
+        <v>6.7684648891867247E-2</v>
+      </c>
+      <c r="Y42" s="8">
+        <f t="shared" ref="Y42:Z42" si="149">+Y26/Y19</f>
         <v>2.5003906693182421E-2</v>
       </c>
-      <c r="S42" s="8">
-        <f t="shared" si="132"/>
+      <c r="Z42" s="8">
+        <f t="shared" si="149"/>
         <v>-9.7668027387176212E-2</v>
       </c>
-      <c r="T42" s="8">
-        <f>+T26/T19</f>
+      <c r="AA42" s="8">
+        <f>+AA26/AA19</f>
         <v>-2.6861129586704575E-2</v>
       </c>
-      <c r="U42" s="8">
-        <f t="shared" ref="U42:AB42" si="133">+U26/U19</f>
+      <c r="AB42" s="8">
+        <f t="shared" ref="AB42:AI42" si="150">+AB26/AB19</f>
         <v>1.0000000000000023E-2</v>
       </c>
-      <c r="V42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AC42" s="8">
+        <f t="shared" si="150"/>
         <v>0.13999999999999996</v>
       </c>
-      <c r="W42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AD42" s="8">
+        <f t="shared" si="150"/>
         <v>0.15999999999999995</v>
       </c>
-      <c r="X42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AE42" s="8">
+        <f t="shared" si="150"/>
         <v>0.18999999999999995</v>
       </c>
-      <c r="Y42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AF42" s="8">
+        <f t="shared" si="150"/>
         <v>0.24000000000000005</v>
       </c>
-      <c r="Z42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AG42" s="8">
+        <f t="shared" si="150"/>
         <v>0.26</v>
       </c>
-      <c r="AA42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AH42" s="8">
+        <f t="shared" si="150"/>
         <v>0.27</v>
       </c>
-      <c r="AB42" s="8">
-        <f t="shared" si="133"/>
+      <c r="AI42" s="8">
+        <f t="shared" si="150"/>
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:F43" si="134">+C31/C19</f>
+        <f t="shared" ref="C43:F43" si="151">+C31/C19</f>
         <v>-0.65160645186507371</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>-0.12663864545420211</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>-4.1981604097821514E-2</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>-0.13879614287725989</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="135">+G31/G19</f>
+        <f t="shared" ref="G43" si="152">+G31/G19</f>
         <v>-1.7018994490904101E-2</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43:J43" si="136">+H31/H19</f>
+        <f t="shared" ref="H43:J43" si="153">+H31/H19</f>
         <v>-0.23493761916984446</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>-0.22834268935707269</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>-6.2775131029988232E-2</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" ref="K43" si="137">+K31/K19</f>
+        <f t="shared" ref="K43" si="154">+K31/K19</f>
         <v>-3.2607706271892849E-2</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" ref="L43:M43" si="138">+L31/L19</f>
+        <f t="shared" ref="L43:M43" si="155">+L31/L19</f>
         <v>-7.9679467225099193E-2</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>1.0723824516788754E-2</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" ref="N43:O43" si="139">+N31/N19</f>
+        <f t="shared" ref="N43:O43" si="156">+N31/N19</f>
         <v>-0.17401974213275118</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="156"/>
         <v>-0.104201868863031</v>
       </c>
-      <c r="R43" s="8">
-        <f t="shared" ref="R43:S43" si="140">+R31/R19</f>
+      <c r="P43" s="8">
+        <f t="shared" ref="P43" si="157">+P31/P19</f>
+        <v>-4.3653023833565403E-2</v>
+      </c>
+      <c r="Y43" s="8">
+        <f t="shared" ref="Y43:Z43" si="158">+Y31/Y19</f>
         <v>-0.18534850914166184</v>
       </c>
-      <c r="S43" s="8">
-        <f t="shared" si="140"/>
+      <c r="Z43" s="8">
+        <f t="shared" si="158"/>
         <v>-0.13771134713027927</v>
       </c>
-      <c r="T43" s="8">
-        <f>+T31/T19</f>
+      <c r="AA43" s="8">
+        <f>+AA31/AA19</f>
         <v>-6.8948468121551629E-2</v>
       </c>
-      <c r="U43" s="8">
-        <f t="shared" ref="U43:AB43" si="141">+U31/U19</f>
-        <v>1.9549081874429473E-2</v>
-      </c>
-      <c r="V43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.1206945520138045</v>
-      </c>
-      <c r="W43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.13844350731136798</v>
-      </c>
-      <c r="X43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.1642575465785249</v>
-      </c>
-      <c r="Y43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.20625871343182903</v>
-      </c>
-      <c r="Z43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.22619001998054256</v>
-      </c>
-      <c r="AA43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.23860081005556236</v>
-      </c>
       <c r="AB43" s="8">
-        <f t="shared" si="141"/>
-        <v>0.25073955038746465</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB43:AI43" si="159">+AB31/AB19</f>
+        <v>3.5857796498630704E-2</v>
+      </c>
+      <c r="AC43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.13608338607798254</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.15750479690168026</v>
+      </c>
+      <c r="AE43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.18731787431009667</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.23395897257938275</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.26116618538786801</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.28184074515058555</v>
+      </c>
+      <c r="AI43" s="8">
+        <f t="shared" si="159"/>
+        <v>0.30223301442249784</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" ref="G45:I46" si="142">+G22/G$19</f>
+        <f t="shared" ref="G45:I46" si="160">+G22/G$19</f>
         <v>0.4941911735563394</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0.5427682238193019</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0.5705852730833807</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" ref="J45" si="143">+J22/J$19</f>
+        <f t="shared" ref="J45" si="161">+J22/J$19</f>
         <v>0.50565010254520815</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" ref="K45" si="144">+K22/K$19</f>
+        <f t="shared" ref="K45" si="162">+K22/K$19</f>
         <v>0.49268799059088236</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" ref="L45:N46" si="145">+L22/L$19</f>
+        <f t="shared" ref="L45:N46" si="163">+L22/L$19</f>
         <v>0.50634273801775276</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>0.48480062701408094</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>0.52059844996862814</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="146">+O22/O$19</f>
+        <f t="shared" ref="O45:P45" si="164">+O22/O$19</f>
         <v>0.50775437559617465</v>
       </c>
-      <c r="R45" s="7">
-        <f>+R22/R$19</f>
+      <c r="P45" s="7">
+        <f t="shared" si="164"/>
+        <v>0.52874664875709598</v>
+      </c>
+      <c r="Y45" s="7">
+        <f>+Y22/Y$19</f>
         <v>0.46091023453716556</v>
       </c>
-      <c r="S45" s="7">
-        <f t="shared" ref="S45:T45" si="147">+S22/S$19</f>
+      <c r="Z45" s="7">
+        <f t="shared" ref="Z45:AA45" si="165">+Z22/Z$19</f>
         <v>0.52901492001888739</v>
       </c>
-      <c r="T45" s="7">
-        <f t="shared" si="147"/>
+      <c r="AA45" s="7">
+        <f t="shared" si="165"/>
         <v>0.50110344988979261</v>
       </c>
-      <c r="U45" s="7">
-        <f t="shared" ref="U45:AB45" si="148">+U22/U$19</f>
+      <c r="AB45" s="7">
+        <f t="shared" ref="AB45:AI45" si="166">+AB22/AB$19</f>
         <v>0.48</v>
       </c>
-      <c r="V45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AC45" s="7">
+        <f t="shared" si="166"/>
         <v>0.4</v>
       </c>
-      <c r="W45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AD45" s="7">
+        <f t="shared" si="166"/>
         <v>0.39</v>
       </c>
-      <c r="X45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AE45" s="7">
+        <f t="shared" si="166"/>
         <v>0.38</v>
       </c>
-      <c r="Y45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AF45" s="7">
+        <f t="shared" si="166"/>
         <v>0.35</v>
       </c>
-      <c r="Z45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AG45" s="7">
+        <f t="shared" si="166"/>
         <v>0.33</v>
       </c>
-      <c r="AA45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AH45" s="7">
+        <f t="shared" si="166"/>
         <v>0.32</v>
       </c>
-      <c r="AB45" s="7">
-        <f t="shared" si="148"/>
+      <c r="AI45" s="7">
+        <f t="shared" si="166"/>
         <v>0.31</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0.19832745432206411</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0.21334954348782637</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0.24132424056723831</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" ref="J46" si="149">+J23/J$19</f>
+        <f t="shared" ref="J46" si="167">+J23/J$19</f>
         <v>0.21576129434840663</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" ref="K46" si="150">+K23/K$19</f>
+        <f t="shared" ref="K46" si="168">+K23/K$19</f>
         <v>0.19796681240571706</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>0.20800954617917006</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>0.18821691188837536</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>0.21174011788722061</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="151">+O23/O$19</f>
+        <f t="shared" ref="O46:P46" si="169">+O23/O$19</f>
         <v>0.21249119155803972</v>
       </c>
-      <c r="R46" s="7">
-        <f>+R23/R$19</f>
+      <c r="P46" s="7">
+        <f t="shared" si="169"/>
+        <v>0.21135003494076396</v>
+      </c>
+      <c r="Y46" s="7">
+        <f>+Y23/Y$19</f>
         <v>0.19116573583903995</v>
       </c>
-      <c r="S46" s="7">
-        <f t="shared" ref="S46:T46" si="152">+S23/S$19</f>
+      <c r="Z46" s="7">
+        <f t="shared" ref="Z46:AA46" si="170">+Z23/Z$19</f>
         <v>0.21780421071750589</v>
       </c>
-      <c r="T46" s="7">
-        <f t="shared" si="152"/>
+      <c r="AA46" s="7">
+        <f t="shared" si="170"/>
         <v>0.20132528702430572</v>
       </c>
-      <c r="U46" s="7">
-        <f t="shared" ref="U46:AB46" si="153">+U23/U$19</f>
+      <c r="AB46" s="7">
+        <f t="shared" ref="AB46:AI46" si="171">+AB23/AB$19</f>
         <v>0.2</v>
       </c>
-      <c r="V46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AC46" s="7">
+        <f t="shared" si="171"/>
         <v>0.17</v>
       </c>
-      <c r="W46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AD46" s="7">
+        <f t="shared" si="171"/>
         <v>0.17</v>
       </c>
-      <c r="X46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AE46" s="7">
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
-      <c r="Y46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AF46" s="7">
+        <f t="shared" si="171"/>
         <v>0.13</v>
       </c>
-      <c r="Z46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AG46" s="7">
+        <f t="shared" si="171"/>
         <v>0.13</v>
       </c>
-      <c r="AA46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AH46" s="7">
+        <f t="shared" si="171"/>
         <v>0.13</v>
       </c>
-      <c r="AB46" s="7">
-        <f t="shared" si="153"/>
+      <c r="AI46" s="7">
+        <f t="shared" si="171"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" ref="G47" si="154">+G24/G$19</f>
+        <f t="shared" ref="G47" si="172">+G24/G$19</f>
         <v>0.17698094605842021</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" ref="H47:J47" si="155">+H24/H$19</f>
+        <f t="shared" ref="H47:J47" si="173">+H24/H$19</f>
         <v>0.17890487496333238</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0.1803511485570532</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0.15145916613601562</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" ref="K47:L47" si="156">+K24/K$19</f>
+        <f t="shared" ref="K47:L47" si="174">+K24/K$19</f>
         <v>0.14656746183938024</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="174"/>
         <v>0.14842233353142595</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" ref="M47:N47" si="157">+M24/M$19</f>
+        <f t="shared" ref="M47:N47" si="175">+M24/M$19</f>
         <v>0.13252988744693592</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="175"/>
         <v>0.1346141270248058</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47" si="158">+O24/O$19</f>
+        <f t="shared" ref="O47:P47" si="176">+O24/O$19</f>
         <v>0.12345794384655082</v>
       </c>
-      <c r="R47" s="7">
-        <f t="shared" ref="R47:T47" si="159">+R24/R$19</f>
+      <c r="P47" s="7">
+        <f t="shared" si="176"/>
+        <v>0.1311409655777119</v>
+      </c>
+      <c r="Y47" s="7">
+        <f t="shared" ref="Y47:AA47" si="177">+Y24/Y$19</f>
         <v>0.16133144384958051</v>
       </c>
-      <c r="S47" s="7">
-        <f t="shared" si="159"/>
+      <c r="Z47" s="7">
+        <f t="shared" si="177"/>
         <v>0.17154810650115837</v>
       </c>
-      <c r="T47" s="7">
-        <f t="shared" si="159"/>
+      <c r="AA47" s="7">
+        <f t="shared" si="177"/>
         <v>0.14008548151781661</v>
       </c>
-      <c r="U47" s="7">
-        <f t="shared" ref="U47:AB47" si="160">+U24/U$19</f>
+      <c r="AB47" s="7">
+        <f t="shared" ref="AB47:AI47" si="178">+AB24/AB$19</f>
         <v>0.13</v>
       </c>
-      <c r="V47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AC47" s="7">
+        <f t="shared" si="178"/>
         <v>0.12</v>
       </c>
-      <c r="W47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AD47" s="7">
+        <f t="shared" si="178"/>
         <v>0.11</v>
       </c>
-      <c r="X47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AE47" s="7">
+        <f t="shared" si="178"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AF47" s="7">
+        <f t="shared" si="178"/>
         <v>0.11</v>
       </c>
-      <c r="Z47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AG47" s="7">
+        <f t="shared" si="178"/>
         <v>0.11</v>
       </c>
-      <c r="AA47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AH47" s="7">
+        <f t="shared" si="178"/>
         <v>0.11</v>
       </c>
-      <c r="AB47" s="7">
-        <f t="shared" si="160"/>
+      <c r="AI47" s="7">
+        <f t="shared" si="178"/>
         <v>0.11</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="2">
-        <f>+R31</f>
+      <c r="P49" s="2"/>
+      <c r="Y49" s="2">
+        <f>+Y31</f>
         <v>-519.50999999999954</v>
       </c>
-      <c r="S49" s="2">
-        <f t="shared" ref="S49:T49" si="161">+S31</f>
+      <c r="Z49" s="2">
+        <f t="shared" ref="Z49:AA49" si="179">+Z31</f>
         <v>-486.76100000000025</v>
       </c>
-      <c r="T49" s="2">
-        <f t="shared" si="161"/>
+      <c r="AA49" s="2">
+        <f t="shared" si="179"/>
         <v>-300.51899999999932</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R50" s="2">
+      <c r="P50" s="2"/>
+      <c r="Y50" s="2">
         <v>51.738999999999997</v>
       </c>
-      <c r="S50" s="2">
+      <c r="Z50" s="2">
         <v>60.923000000000002</v>
       </c>
-      <c r="T50" s="2">
+      <c r="AA50" s="2">
         <v>78.738</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R51" s="2">
+      <c r="P51" s="2"/>
+      <c r="Y51" s="2">
         <v>524.803</v>
       </c>
-      <c r="S51" s="2">
+      <c r="Z51" s="2">
         <v>948.08699999999999</v>
       </c>
-      <c r="T51" s="2">
+      <c r="AA51" s="2">
         <v>1081.433</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2">
+      <c r="P52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2">
         <v>61.097999999999999</v>
       </c>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R53" s="2">
+      <c r="P53" s="2"/>
+      <c r="Y53" s="2">
         <v>-2.0019999999999998</v>
       </c>
-      <c r="S53" s="2">
+      <c r="Z53" s="2">
         <v>10.613</v>
       </c>
-      <c r="T53" s="2">
+      <c r="AA53" s="2">
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2">
+      <c r="P54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2">
         <v>-45.158000000000001</v>
       </c>
-      <c r="T54" s="2">
+      <c r="AA54" s="2">
         <v>-1.3779999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2">
+      <c r="P55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2">
         <v>-4.1660000000000004</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R56" s="2">
+      <c r="P56" s="2"/>
+      <c r="Y56" s="2">
         <v>424.48200000000003</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R57" s="2">
+      <c r="P57" s="2"/>
+      <c r="Y57" s="2">
         <v>27.050999999999998</v>
       </c>
-      <c r="S57" s="2">
+      <c r="Z57" s="2">
         <v>0.47099999999999997</v>
       </c>
-      <c r="T57" s="2">
+      <c r="AA57" s="2">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R58" s="2">
+      <c r="P58" s="2"/>
+      <c r="Y58" s="2">
         <v>72.662999999999997</v>
       </c>
-      <c r="S58" s="2">
+      <c r="Z58" s="2">
         <v>19.407</v>
       </c>
-      <c r="T58" s="2">
+      <c r="AA58" s="2">
         <v>13.337</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R59" s="2">
+      <c r="P59" s="2"/>
+      <c r="Y59" s="2">
         <v>-12.065</v>
       </c>
-      <c r="S59" s="2">
+      <c r="Z59" s="2">
         <v>-10.613</v>
       </c>
-      <c r="T59" s="2">
+      <c r="AA59" s="2">
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R60" s="2">
+      <c r="P60" s="2"/>
+      <c r="Y60" s="2">
         <v>0.64600000000000002</v>
       </c>
-      <c r="S60" s="2">
+      <c r="Z60" s="2">
         <v>1.488</v>
       </c>
-      <c r="T60" s="2">
+      <c r="AA60" s="2">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R61" s="2">
+      <c r="P61" s="2"/>
+      <c r="Y61" s="2">
         <f>-134.764-21.927+31.741+93.25+284.937</f>
         <v>253.23700000000002</v>
       </c>
-      <c r="S61" s="2">
+      <c r="Z61" s="2">
         <f>-169.526-38.23+78.902+74.611+362.799</f>
         <v>308.55599999999998</v>
       </c>
-      <c r="T61" s="2">
+      <c r="AA61" s="2">
         <f>-148.469-3.122+18.15+158.123+552.307</f>
         <v>576.98900000000003</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>35</v>
       </c>
@@ -8433,22 +9017,43 @@
       <c r="O62" s="5">
         <v>80.492000000000004</v>
       </c>
-      <c r="P62" s="4"/>
+      <c r="P62" s="5">
+        <v>351.90499999999997</v>
+      </c>
       <c r="Q62" s="4"/>
-      <c r="R62" s="5">
-        <f>+SUM(R49:R61)</f>
+      <c r="R62" s="4"/>
+      <c r="S62" s="5">
+        <v>129.5</v>
+      </c>
+      <c r="T62" s="5">
+        <v>199.4</v>
+      </c>
+      <c r="U62" s="5">
+        <v>311.5</v>
+      </c>
+      <c r="V62" s="5">
+        <v>466.3</v>
+      </c>
+      <c r="W62" s="5">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="X62" s="5">
+        <v>790</v>
+      </c>
+      <c r="Y62" s="5">
+        <f>+SUM(Y49:Y61)</f>
         <v>821.04400000000032</v>
       </c>
-      <c r="S62" s="5">
-        <f t="shared" ref="S62:T62" si="162">+SUM(S49:S61)</f>
+      <c r="Z62" s="5">
+        <f t="shared" ref="Z62:AA62" si="180">+SUM(Z49:Z61)</f>
         <v>868.11099999999988</v>
       </c>
-      <c r="T62" s="5">
-        <f t="shared" si="162"/>
+      <c r="AA62" s="5">
+        <f t="shared" si="180"/>
         <v>1448.1590000000006</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -8458,8 +9063,9 @@
       <c r="I63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
@@ -8476,17 +9082,18 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="R64" s="2">
+      <c r="P64" s="2"/>
+      <c r="Y64" s="2">
         <v>-19.411000000000001</v>
       </c>
-      <c r="S64" s="2">
+      <c r="Z64" s="2">
         <v>-5.7750000000000004</v>
       </c>
-      <c r="T64" s="2">
+      <c r="AA64" s="2">
         <v>-847.76700000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
@@ -8503,17 +9110,18 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="R65" s="2">
+      <c r="P65" s="2"/>
+      <c r="Y65" s="2">
         <v>-4.0179999999999998</v>
       </c>
-      <c r="S65" s="2">
+      <c r="Z65" s="2">
         <v>-0.16</v>
       </c>
-      <c r="T65" s="2">
+      <c r="AA65" s="2">
         <v>-0.53500000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>40</v>
       </c>
@@ -8556,17 +9164,20 @@
       <c r="O66" s="2">
         <v>-6.1509999999999998</v>
       </c>
-      <c r="R66" s="2">
+      <c r="P66" s="2">
+        <v>9.3360000000000003</v>
+      </c>
+      <c r="Y66" s="2">
         <v>-70.582999999999998</v>
       </c>
-      <c r="S66" s="2">
+      <c r="Z66" s="2">
         <v>-25.652000000000001</v>
       </c>
-      <c r="T66" s="2">
+      <c r="AA66" s="2">
         <v>-32.576999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
@@ -8583,17 +9194,18 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="R67" s="2">
+      <c r="P67" s="2"/>
+      <c r="Y67" s="2">
         <v>-111.66800000000001</v>
       </c>
-      <c r="S67" s="2">
+      <c r="Z67" s="2">
         <v>-19.45</v>
       </c>
-      <c r="T67" s="2">
+      <c r="AA67" s="2">
         <v>-14.4</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>42</v>
       </c>
@@ -8610,17 +9222,18 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="R68" s="2">
+      <c r="P68" s="2"/>
+      <c r="Y68" s="2">
         <v>-21.003</v>
       </c>
-      <c r="S68" s="2">
+      <c r="Z68" s="2">
         <v>-24.8</v>
       </c>
-      <c r="T68" s="2">
+      <c r="AA68" s="2">
         <v>-248.89699999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
@@ -8637,17 +9250,18 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="R69" s="2">
+      <c r="P69" s="2"/>
+      <c r="Y69" s="2">
         <v>76.936999999999998</v>
       </c>
-      <c r="S69" s="2">
+      <c r="Z69" s="2">
         <v>73.95</v>
       </c>
-      <c r="T69" s="2">
+      <c r="AA69" s="2">
         <v>116.53700000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>44</v>
       </c>
@@ -8664,17 +9278,18 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="R70" s="2">
+      <c r="P70" s="2"/>
+      <c r="Y70" s="2">
         <v>186.262</v>
       </c>
-      <c r="S70" s="2">
+      <c r="Z70" s="2">
         <v>0.629</v>
       </c>
-      <c r="T70" s="2">
+      <c r="AA70" s="2">
         <v>63.893000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>45</v>
       </c>
@@ -8691,22 +9306,29 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
-      <c r="P71" s="4"/>
+      <c r="P71" s="5"/>
       <c r="Q71" s="4"/>
-      <c r="R71" s="5">
-        <f>+SUM(R64:R70)</f>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="5">
+        <f>+SUM(Y64:Y70)</f>
         <v>36.51600000000002</v>
       </c>
-      <c r="S71" s="5">
-        <f t="shared" ref="S71:T71" si="163">+SUM(S64:S70)</f>
+      <c r="Z71" s="5">
+        <f t="shared" ref="Z71:AA71" si="181">+SUM(Z64:Z70)</f>
         <v>-1.2580000000000005</v>
       </c>
-      <c r="T71" s="5">
-        <f t="shared" si="163"/>
+      <c r="AA71" s="5">
+        <f t="shared" si="181"/>
         <v>-963.74599999999987</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -8720,8 +9342,9 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>46</v>
       </c>
@@ -8738,13 +9361,14 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="R73" s="2">
+      <c r="P73" s="2"/>
+      <c r="Y73" s="2">
         <v>1000</v>
       </c>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>47</v>
       </c>
@@ -8761,13 +9385,14 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2">
+      <c r="P74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2">
         <v>-1000</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>48</v>
       </c>
@@ -8784,13 +9409,14 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2">
+      <c r="P75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2">
         <v>987.03899999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>49</v>
       </c>
@@ -8807,13 +9433,14 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="R76" s="2">
+      <c r="P76" s="2"/>
+      <c r="Y76" s="2">
         <v>-1548.6859999999999</v>
       </c>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>50</v>
       </c>
@@ -8830,13 +9457,14 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="R77" s="2">
+      <c r="P77" s="2"/>
+      <c r="Y77" s="2">
         <v>135.49700000000001</v>
       </c>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>51</v>
       </c>
@@ -8853,15 +9481,16 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2">
+      <c r="P78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2">
         <v>-150.006</v>
       </c>
-      <c r="T78" s="2">
+      <c r="AA78" s="2">
         <v>-395.25599999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>52</v>
       </c>
@@ -8878,15 +9507,16 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-      <c r="R79" s="2">
+      <c r="P79" s="2"/>
+      <c r="Y79" s="2">
         <v>13.909000000000001</v>
       </c>
-      <c r="S79" s="2">
+      <c r="Z79" s="2">
         <v>1.585</v>
       </c>
-      <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="4" t="s">
         <v>53</v>
@@ -8904,20 +9534,21 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
-      <c r="R80" s="5">
-        <f>+SUM(R73:R79)</f>
+      <c r="P80" s="5"/>
+      <c r="Y80" s="5">
+        <f>+SUM(Y73:Y79)</f>
         <v>-399.27999999999992</v>
       </c>
-      <c r="S80" s="5">
-        <f t="shared" ref="S80:T80" si="164">+SUM(S73:S79)</f>
+      <c r="Z80" s="5">
+        <f t="shared" ref="Z80:AA80" si="182">+SUM(Z73:Z79)</f>
         <v>-148.42099999999999</v>
       </c>
-      <c r="T80" s="5">
-        <f t="shared" si="164"/>
+      <c r="AA80" s="5">
+        <f t="shared" si="182"/>
         <v>-408.21699999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>33</v>
       </c>
@@ -8934,17 +9565,18 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-      <c r="R81" s="2">
+      <c r="P81" s="2"/>
+      <c r="Y81" s="2">
         <v>-9.2330000000000005</v>
       </c>
-      <c r="S81" s="2">
+      <c r="Z81" s="2">
         <v>-1.8049999999999999</v>
       </c>
-      <c r="T81" s="2">
+      <c r="AA81" s="2">
         <v>-1.9890000000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>54</v>
       </c>
@@ -8961,20 +9593,21 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-      <c r="R82" s="2">
-        <f>+R62+R71+R80+R81</f>
+      <c r="P82" s="2"/>
+      <c r="Y82" s="2">
+        <f>+Y62+Y71+Y80+Y81</f>
         <v>449.04700000000048</v>
       </c>
-      <c r="S82" s="2">
-        <f t="shared" ref="S82:T82" si="165">+S62+S71+S80+S81</f>
+      <c r="Z82" s="2">
+        <f t="shared" ref="Z82:AA82" si="183">+Z62+Z71+Z80+Z81</f>
         <v>716.62699999999984</v>
       </c>
-      <c r="T82" s="2">
-        <f t="shared" si="165"/>
+      <c r="AA82" s="2">
+        <f t="shared" si="183"/>
         <v>74.207000000000704</v>
       </c>
     </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -8988,77 +9621,82 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" ref="C84:N84" si="166">+C62+C66</f>
+        <f t="shared" ref="C84:N84" si="184">+C62+C66</f>
         <v>71.504999999999995</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>209.10300000000001</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>326.55599999999998</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>205.749</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>75.945999999999998</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>146.48500000000001</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>349.67800000000005</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>270.34999999999997</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>163.28699999999998</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>284.26099999999997</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>554.87</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>413.16399999999999</v>
       </c>
       <c r="O84" s="2">
-        <f t="shared" ref="O84" si="167">+O62+O66</f>
+        <f t="shared" ref="O84:P84" si="185">+O62+O66</f>
         <v>74.341000000000008</v>
       </c>
-      <c r="R84" s="2">
-        <f t="shared" ref="R84:S84" si="168">+R62+R66</f>
+      <c r="P84" s="2">
+        <f t="shared" si="185"/>
+        <v>361.24099999999999</v>
+      </c>
+      <c r="Y84" s="2">
+        <f t="shared" ref="Y84:Z84" si="186">+Y62+Y66</f>
         <v>750.46100000000035</v>
       </c>
-      <c r="S84" s="2">
-        <f t="shared" si="168"/>
+      <c r="Z84" s="2">
+        <f t="shared" si="186"/>
         <v>842.45899999999983</v>
       </c>
-      <c r="T84" s="2">
-        <f>+T62+T66</f>
+      <c r="AA84" s="2">
+        <f>+AA62+AA66</f>
         <v>1415.5820000000006</v>
       </c>
     </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
@@ -9066,35 +9704,35 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <f t="shared" ref="F85" si="169">+SUM(C84:F84)</f>
+        <f t="shared" ref="F85" si="187">+SUM(C84:F84)</f>
         <v>812.91300000000001</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ref="G85" si="170">+SUM(D84:G84)</f>
+        <f t="shared" ref="G85" si="188">+SUM(D84:G84)</f>
         <v>817.35400000000004</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" ref="H85" si="171">+SUM(E84:H84)</f>
+        <f t="shared" ref="H85" si="189">+SUM(E84:H84)</f>
         <v>754.73599999999999</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" ref="I85" si="172">+SUM(F84:I84)</f>
+        <f t="shared" ref="I85" si="190">+SUM(F84:I84)</f>
         <v>777.85800000000006</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" ref="J85:M85" si="173">+SUM(G84:J84)</f>
+        <f t="shared" ref="J85:M85" si="191">+SUM(G84:J84)</f>
         <v>842.45900000000006</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>929.8</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>1067.576</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="173"/>
+        <f t="shared" si="191"/>
         <v>1272.768</v>
       </c>
       <c r="N85" s="2">
@@ -9102,100 +9740,108 @@
         <v>1415.5819999999999</v>
       </c>
       <c r="O85" s="2">
-        <f t="shared" ref="O85" si="174">+SUM(L84:O84)</f>
+        <f t="shared" ref="O85" si="192">+SUM(L84:O84)</f>
         <v>1326.636</v>
       </c>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-    </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P85" s="2">
+        <f t="shared" ref="P85" si="193">+SUM(M84:P84)</f>
+        <v>1403.616</v>
+      </c>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R86" s="7">
-        <f t="shared" ref="R86:S86" si="175">+R51/R19</f>
+      <c r="Y86" s="7">
+        <f t="shared" ref="Y86:Z86" si="194">+Y51/Y19</f>
         <v>0.18723692256755722</v>
       </c>
-      <c r="S86" s="7">
-        <f t="shared" si="175"/>
+      <c r="Z86" s="7">
+        <f t="shared" si="194"/>
         <v>0.26822678473974915</v>
       </c>
-      <c r="T86" s="7">
-        <f>+T51/T19</f>
+      <c r="AA86" s="7">
+        <f>+AA51/AA19</f>
         <v>0.24811459084481885</v>
       </c>
     </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2">
+      <c r="P88" s="2">
+        <f>+main!M6-main!M7</f>
+        <v>1704.7469999999998</v>
+      </c>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2">
         <f>2102.55+10+225.538-37.5-962.093</f>
         <v>1338.4950000000003</v>
       </c>
-      <c r="T88" s="2">
+      <c r="AA88" s="2">
         <f>2176.93+161.973+223.221-985.911</f>
         <v>1576.2129999999997</v>
       </c>
-      <c r="U88" s="2">
-        <f>+T88+U31</f>
-        <v>1680.6962489089999</v>
-      </c>
-      <c r="V88" s="2">
-        <f t="shared" ref="V88:AB88" si="176">+U88+V31</f>
-        <v>2474.452106718245</v>
-      </c>
-      <c r="W88" s="2">
-        <f t="shared" si="176"/>
-        <v>3598.0107901747178</v>
-      </c>
-      <c r="X88" s="2">
-        <f t="shared" si="176"/>
-        <v>5246.9205540471012</v>
-      </c>
-      <c r="Y88" s="2">
-        <f t="shared" si="176"/>
-        <v>7813.0137851796135</v>
-      </c>
-      <c r="Z88" s="2">
-        <f t="shared" si="176"/>
-        <v>11170.654468563433</v>
-      </c>
-      <c r="AA88" s="2">
-        <f t="shared" si="176"/>
-        <v>15331.802841610483</v>
-      </c>
       <c r="AB88" s="2">
-        <f t="shared" si="176"/>
-        <v>20472.349240524454</v>
-      </c>
-    </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.2">
+        <f>+AA88+AB31</f>
+        <v>1767.8608278089998</v>
+      </c>
+      <c r="AC88" s="2">
+        <f t="shared" ref="AC88:AI88" si="195">+AB88+AC31</f>
+        <v>2662.8223902626328</v>
+      </c>
+      <c r="AD88" s="2">
+        <f t="shared" si="195"/>
+        <v>3941.0757781006323</v>
+      </c>
+      <c r="AE88" s="2">
+        <f t="shared" si="195"/>
+        <v>5821.478099525053</v>
+      </c>
+      <c r="AF88" s="2">
+        <f t="shared" si="195"/>
+        <v>8732.1940926076786</v>
+      </c>
+      <c r="AG88" s="2">
+        <f t="shared" si="195"/>
+        <v>12609.032731456111</v>
+      </c>
+      <c r="AH88" s="2">
+        <f t="shared" si="195"/>
+        <v>17524.276555936944</v>
+      </c>
+      <c r="AI88" s="2">
+        <f t="shared" si="195"/>
+        <v>23720.518160110125</v>
+      </c>
+    </row>
+    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R90" s="1">
+      <c r="Y90" s="1">
         <v>232</v>
       </c>
-      <c r="S90" s="1">
+      <c r="Z90" s="1">
         <v>353</v>
       </c>
-      <c r="T90" s="1">
+      <c r="AA90" s="1">
         <v>524</v>
       </c>
     </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S91" s="7">
-        <f>+S90/R90-1</f>
+      <c r="Z91" s="7">
+        <f>+Z90/Y90-1</f>
         <v>0.52155172413793105</v>
       </c>
-      <c r="T91" s="7">
-        <f t="shared" ref="T91" si="177">+T90/S90-1</f>
+      <c r="AA91" s="7">
+        <f t="shared" ref="AA91" si="196">+AA90/Z90-1</f>
         <v>0.48441926345609065</v>
       </c>
     </row>
@@ -9204,7 +9850,7 @@
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{E892C8F9-48DD-4E34-A263-DE927B2E97D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -9219,16 +9865,16 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>138</v>
       </c>
@@ -9242,7 +9888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>124</v>
       </c>
@@ -9259,7 +9905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
@@ -9273,7 +9919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
@@ -9290,7 +9936,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
@@ -9307,7 +9953,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>145</v>
       </c>
@@ -9324,7 +9970,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>146</v>
       </c>
@@ -9341,7 +9987,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
@@ -9358,7 +10004,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>148</v>
       </c>
